--- a/deployment/Omaha_Cal_Info_CP03ISSM_00002.xlsx
+++ b/deployment/Omaha_Cal_Info_CP03ISSM_00002.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gauls\Desktop\Temp\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="735" yWindow="405" windowWidth="20730" windowHeight="7020" tabRatio="766" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14220" windowHeight="8436" tabRatio="766" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
     <sheet name="ACS130_CC_taarray" sheetId="5" r:id="rId5"/>
     <sheet name="ACS130_CC_tcarray" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="236">
   <si>
     <t>Ref Des</t>
   </si>
@@ -671,13 +676,7 @@
     <t>CP03ISSM-00002-METBK</t>
   </si>
   <si>
-    <t>CP03ISSM-00002-SBD11-02-HYDGN0000</t>
-  </si>
-  <si>
     <t>CP03ISSM-00002-MOPAK</t>
-  </si>
-  <si>
-    <t>CP03ISSM-00002-SBD12-03-HYDGN0000</t>
   </si>
   <si>
     <t>CP03ISSM-00002-CPM1</t>
@@ -709,6 +708,48 @@
   <si>
     <t>N00756</t>
   </si>
+  <si>
+    <t>R00012</t>
+  </si>
+  <si>
+    <t>R00013</t>
+  </si>
+  <si>
+    <t>R00014</t>
+  </si>
+  <si>
+    <t>R00015</t>
+  </si>
+  <si>
+    <t>R00016</t>
+  </si>
+  <si>
+    <t>R00017</t>
+  </si>
+  <si>
+    <t>R00018</t>
+  </si>
+  <si>
+    <t>R00019</t>
+  </si>
+  <si>
+    <t>R00020</t>
+  </si>
+  <si>
+    <t>R00021</t>
+  </si>
+  <si>
+    <t>R00022</t>
+  </si>
+  <si>
+    <t>R00023</t>
+  </si>
+  <si>
+    <t>CP03ISSM-00002-HYDGN1</t>
+  </si>
+  <si>
+    <t>CP03ISSM-00002-HYDGN2</t>
+  </si>
 </sst>
 </file>
 
@@ -718,7 +759,7 @@
     <numFmt numFmtId="164" formatCode="d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -786,8 +827,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -824,8 +872,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -884,6 +938,21 @@
       </top>
       <bottom style="hair">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -971,7 +1040,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1079,6 +1148,9 @@
     </xf>
     <xf numFmtId="165" fontId="8" fillId="6" borderId="4" xfId="80" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="81">
@@ -1573,23 +1645,23 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="1"/>
-    <col min="3" max="3" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="3"/>
-    <col min="7" max="7" width="8.85546875" style="2"/>
-    <col min="8" max="8" width="14.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" customWidth="1"/>
-    <col min="10" max="11" width="8.85546875" style="1"/>
-    <col min="12" max="12" width="35.42578125" style="1" customWidth="1"/>
-    <col min="13" max="1026" width="8.85546875" style="1"/>
+    <col min="6" max="6" width="8.88671875" style="3"/>
+    <col min="7" max="7" width="8.88671875" style="2"/>
+    <col min="8" max="8" width="14.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" style="1" customWidth="1"/>
+    <col min="10" max="11" width="8.88671875" style="1"/>
+    <col min="12" max="12" width="35.44140625" style="1" customWidth="1"/>
+    <col min="13" max="1026" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1026" s="9" customFormat="1" ht="38.25">
+    <row r="1" spans="1:1026" s="9" customFormat="1" ht="41.4">
       <c r="A1" s="37" t="s">
         <v>183</v>
       </c>
@@ -2694,25 +2766,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMM194"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7:E15"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="27.140625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.42578125" style="14" customWidth="1"/>
-    <col min="6" max="6" width="26.28515625" style="14" customWidth="1"/>
-    <col min="7" max="7" width="39.7109375" style="14" customWidth="1"/>
-    <col min="8" max="8" width="46.28515625" style="14" customWidth="1"/>
-    <col min="9" max="9" width="55.7109375" style="14" customWidth="1"/>
-    <col min="10" max="1027" width="8.85546875" style="14"/>
+    <col min="1" max="2" width="27.109375" style="14" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.44140625" style="14" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.6640625" style="14" customWidth="1"/>
+    <col min="8" max="8" width="46.33203125" style="14" customWidth="1"/>
+    <col min="9" max="9" width="55.6640625" style="14" customWidth="1"/>
+    <col min="10" max="1027" width="8.88671875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1026" s="16" customFormat="1" ht="12.75">
+    <row r="1" spans="1:1026" s="16" customFormat="1" ht="13.8">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -3782,8 +3854,11 @@
       <c r="D3" s="14">
         <v>2</v>
       </c>
+      <c r="E3" s="40" t="s">
+        <v>222</v>
+      </c>
       <c r="F3" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G3"/>
       <c r="H3"/>
@@ -4821,8 +4896,11 @@
       <c r="D5" s="26">
         <v>2</v>
       </c>
-      <c r="F5" s="18" t="s">
-        <v>211</v>
+      <c r="E5" s="40" t="s">
+        <v>223</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:1026">
@@ -4839,7 +4917,7 @@
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F7" t="s">
         <v>210</v>
@@ -5885,7 +5963,7 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F8" t="s">
         <v>210</v>
@@ -6931,7 +7009,7 @@
         <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F9" t="s">
         <v>210</v>
@@ -7977,7 +8055,7 @@
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F10" t="s">
         <v>210</v>
@@ -9023,7 +9101,7 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F11" t="s">
         <v>210</v>
@@ -10069,7 +10147,7 @@
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F12" t="s">
         <v>210</v>
@@ -11115,7 +11193,7 @@
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F13" t="s">
         <v>210</v>
@@ -12161,7 +12239,7 @@
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F14" t="s">
         <v>210</v>
@@ -13207,7 +13285,7 @@
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F15" t="s">
         <v>210</v>
@@ -15280,8 +15358,11 @@
       <c r="D17" s="26">
         <v>2</v>
       </c>
-      <c r="F17" s="18" t="s">
-        <v>213</v>
+      <c r="E17" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="F17" s="40" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:1026">
@@ -51893,8 +51974,11 @@
       <c r="D180" s="14">
         <v>2</v>
       </c>
+      <c r="E180" s="40" t="s">
+        <v>225</v>
+      </c>
       <c r="F180" s="18" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I180" s="29" t="s">
         <v>132</v>
@@ -51914,8 +51998,11 @@
       <c r="D181" s="14">
         <v>2</v>
       </c>
+      <c r="E181" s="40" t="s">
+        <v>226</v>
+      </c>
       <c r="F181" s="18" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I181" s="29" t="s">
         <v>132</v>
@@ -51935,8 +52022,11 @@
       <c r="D182" s="14">
         <v>2</v>
       </c>
+      <c r="E182" s="40" t="s">
+        <v>227</v>
+      </c>
       <c r="F182" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I182" s="29" t="s">
         <v>132</v>
@@ -51966,8 +52056,11 @@
       <c r="D184" s="14">
         <v>2</v>
       </c>
+      <c r="E184" s="40" t="s">
+        <v>228</v>
+      </c>
       <c r="F184" s="18" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I184" s="29" t="s">
         <v>136</v>
@@ -51987,8 +52080,11 @@
       <c r="D185" s="14">
         <v>2</v>
       </c>
+      <c r="E185" s="40" t="s">
+        <v>229</v>
+      </c>
       <c r="F185" s="18" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I185" s="29" t="s">
         <v>136</v>
@@ -52008,8 +52104,11 @@
       <c r="D186" s="14">
         <v>2</v>
       </c>
+      <c r="E186" s="40" t="s">
+        <v>230</v>
+      </c>
       <c r="F186" s="18" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I186" s="29" t="s">
         <v>136</v>
@@ -52029,8 +52128,11 @@
       <c r="D187" s="14">
         <v>2</v>
       </c>
+      <c r="E187" s="40" t="s">
+        <v>231</v>
+      </c>
       <c r="F187" s="18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I187" s="29" t="s">
         <v>136</v>
@@ -52050,8 +52152,11 @@
       <c r="D188" s="14">
         <v>2</v>
       </c>
+      <c r="E188" s="40" t="s">
+        <v>232</v>
+      </c>
       <c r="F188" s="18" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I188" s="29" t="s">
         <v>136</v>
@@ -52071,8 +52176,11 @@
       <c r="D189" s="14">
         <v>2</v>
       </c>
+      <c r="E189" s="40" t="s">
+        <v>233</v>
+      </c>
       <c r="F189" s="18" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I189" s="29" t="s">
         <v>136</v>
@@ -52096,7 +52204,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -52113,7 +52221,7 @@
       <selection sqref="A1:XFD81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:37">
       <c r="A1">
@@ -61287,7 +61395,7 @@
       <selection sqref="A1:XFD81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:37">
       <c r="A1">
@@ -70461,7 +70569,7 @@
       <selection sqref="A1:XFD83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:37">
       <c r="A1">
@@ -79861,7 +79969,7 @@
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:37">
       <c r="A1">

--- a/deployment/Omaha_Cal_Info_CP03ISSM_00002.xlsx
+++ b/deployment/Omaha_Cal_Info_CP03ISSM_00002.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gauls\Desktop\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14220" windowHeight="8436" tabRatio="766" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14220" windowHeight="8430" tabRatio="766" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -759,7 +759,7 @@
     <numFmt numFmtId="164" formatCode="d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -833,6 +833,12 @@
       <family val="2"/>
       <charset val="1"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1103,9 +1109,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1151,6 +1154,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="81">
@@ -1641,28 +1647,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AML2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="1"/>
+    <col min="3" max="3" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="3"/>
-    <col min="7" max="7" width="8.88671875" style="2"/>
-    <col min="8" max="8" width="14.109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" style="1" customWidth="1"/>
-    <col min="10" max="11" width="8.88671875" style="1"/>
-    <col min="12" max="12" width="35.44140625" style="1" customWidth="1"/>
-    <col min="13" max="1026" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="8.85546875" style="3"/>
+    <col min="7" max="7" width="8.85546875" style="2"/>
+    <col min="8" max="8" width="14.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" customWidth="1"/>
+    <col min="10" max="11" width="8.85546875" style="1"/>
+    <col min="12" max="12" width="35.42578125" style="1" customWidth="1"/>
+    <col min="13" max="1026" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1026" s="9" customFormat="1" ht="41.4">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:1026" s="9" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
         <v>183</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -1699,7 +1705,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:1026" s="23" customFormat="1">
+    <row r="2" spans="1:1026" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>184</v>
       </c>
@@ -1718,7 +1724,7 @@
       <c r="F2" s="13">
         <v>3.9583333333333331E-2</v>
       </c>
-      <c r="G2" s="39">
+      <c r="G2" s="38">
         <v>42307</v>
       </c>
       <c r="H2" s="10" t="s">
@@ -1733,11 +1739,17 @@
       <c r="K2" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="L2" s="38" t="s">
+      <c r="L2" s="37" t="s">
         <v>209</v>
       </c>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
+      <c r="M2" s="40">
+        <f>((LEFT(H2,(FIND("°",H2,1)-1)))+(MID(H2,(FIND("°",H2,1)+1),(FIND("'",H2,1))-(FIND("°",H2,1)+1))/60))*(IF(RIGHT(H2,1)="N",1,-1))</f>
+        <v>40.359445000000001</v>
+      </c>
+      <c r="N2" s="40">
+        <f>((LEFT(I2,(FIND("°",I2,1)-1)))+(MID(I2,(FIND("°",I2,1)+1),(FIND("'",I2,1))-(FIND("°",I2,1)+1))/60))*(IF(RIGHT(I2,1)="E",1,-1))</f>
+        <v>-70.885278333333332</v>
+      </c>
       <c r="O2" s="17"/>
       <c r="P2" s="17"/>
       <c r="Q2" s="17"/>
@@ -2766,25 +2778,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMM194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="27.109375" style="14" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.44140625" style="14" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.6640625" style="14" customWidth="1"/>
-    <col min="8" max="8" width="46.33203125" style="14" customWidth="1"/>
-    <col min="9" max="9" width="55.6640625" style="14" customWidth="1"/>
-    <col min="10" max="1027" width="8.88671875" style="14"/>
+    <col min="1" max="2" width="27.140625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.42578125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" style="14" customWidth="1"/>
+    <col min="8" max="8" width="26.42578125" style="14" customWidth="1"/>
+    <col min="9" max="9" width="27" style="14" customWidth="1"/>
+    <col min="10" max="1027" width="8.85546875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1026" s="16" customFormat="1" ht="13.8">
+    <row r="1" spans="1:1026" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -2813,7 +2825,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:1026">
+    <row r="2" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2"/>
@@ -3841,7 +3853,7 @@
       <c r="AMK2"/>
       <c r="AML2"/>
     </row>
-    <row r="3" spans="1:1026">
+    <row r="3" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>179</v>
       </c>
@@ -3854,7 +3866,7 @@
       <c r="D3" s="14">
         <v>2</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="39" t="s">
         <v>222</v>
       </c>
       <c r="F3" s="18" t="s">
@@ -4883,27 +4895,37 @@
       <c r="AMK3"/>
       <c r="AML3"/>
     </row>
-    <row r="5" spans="1:1026" s="26" customFormat="1">
-      <c r="A5" s="24" t="s">
+    <row r="4" spans="1:1026" x14ac:dyDescent="0.25">
+      <c r="K4"/>
+      <c r="P4"/>
+    </row>
+    <row r="5" spans="1:1026" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
         <v>142</v>
       </c>
       <c r="B5" t="s">
         <v>184</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="25">
         <v>2</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="39" t="s">
         <v>234</v>
       </c>
+      <c r="K5"/>
+      <c r="P5"/>
     </row>
-    <row r="7" spans="1:1026">
+    <row r="6" spans="1:1026" x14ac:dyDescent="0.25">
+      <c r="K6"/>
+      <c r="P6"/>
+    </row>
+    <row r="7" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>17</v>
       </c>
@@ -4925,7 +4947,7 @@
       <c r="G7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="27">
+      <c r="H7" s="26">
         <v>40.359383333333334</v>
       </c>
       <c r="I7" t="s">
@@ -5949,7 +5971,7 @@
       <c r="AMK7"/>
       <c r="AML7"/>
     </row>
-    <row r="8" spans="1:1026">
+    <row r="8" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>17</v>
       </c>
@@ -5971,7 +5993,7 @@
       <c r="G8" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="27">
+      <c r="H8" s="26">
         <v>-70.885300000000001</v>
       </c>
       <c r="I8" t="s">
@@ -6995,7 +7017,7 @@
       <c r="AMK8"/>
       <c r="AML8"/>
     </row>
-    <row r="9" spans="1:1026">
+    <row r="9" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>17</v>
       </c>
@@ -7017,7 +7039,7 @@
       <c r="G9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="27">
+      <c r="H9" s="26">
         <v>1.0668</v>
       </c>
       <c r="I9" t="s">
@@ -8041,7 +8063,7 @@
       <c r="AMK9"/>
       <c r="AML9"/>
     </row>
-    <row r="10" spans="1:1026">
+    <row r="10" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>17</v>
       </c>
@@ -8063,7 +8085,7 @@
       <c r="G10" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="27">
+      <c r="H10" s="26">
         <v>4.2926000000000002</v>
       </c>
       <c r="I10" t="s">
@@ -9087,7 +9109,7 @@
       <c r="AMK10"/>
       <c r="AML10"/>
     </row>
-    <row r="11" spans="1:1026">
+    <row r="11" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>17</v>
       </c>
@@ -9109,7 +9131,7 @@
       <c r="G11" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="27">
+      <c r="H11" s="26">
         <v>4.2926000000000002</v>
       </c>
       <c r="I11" t="s">
@@ -10133,7 +10155,7 @@
       <c r="AMK11"/>
       <c r="AML11"/>
     </row>
-    <row r="12" spans="1:1026">
+    <row r="12" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>17</v>
       </c>
@@ -10155,7 +10177,7 @@
       <c r="G12" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="27">
+      <c r="H12" s="26">
         <v>4.7497999999999996</v>
       </c>
       <c r="I12" t="s">
@@ -11179,7 +11201,7 @@
       <c r="AMK12"/>
       <c r="AML12"/>
     </row>
-    <row r="13" spans="1:1026">
+    <row r="13" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>17</v>
       </c>
@@ -11201,7 +11223,7 @@
       <c r="G13" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="31">
+      <c r="H13" s="30">
         <v>1</v>
       </c>
       <c r="I13" s="14" t="s">
@@ -12225,7 +12247,7 @@
       <c r="AMK13"/>
       <c r="AML13"/>
     </row>
-    <row r="14" spans="1:1026">
+    <row r="14" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>17</v>
       </c>
@@ -12247,7 +12269,7 @@
       <c r="G14" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H14" s="31">
+      <c r="H14" s="30">
         <v>1</v>
       </c>
       <c r="I14" s="14" t="s">
@@ -13271,7 +13293,7 @@
       <c r="AMK14"/>
       <c r="AML14"/>
     </row>
-    <row r="15" spans="1:1026">
+    <row r="15" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>17</v>
       </c>
@@ -13293,7 +13315,7 @@
       <c r="G15" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H15" s="31">
+      <c r="H15" s="30">
         <v>600</v>
       </c>
       <c r="I15" s="14" t="s">
@@ -14317,7 +14339,7 @@
       <c r="AMK15"/>
       <c r="AML15"/>
     </row>
-    <row r="16" spans="1:1026">
+    <row r="16" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -15345,27 +15367,33 @@
       <c r="AMK16"/>
       <c r="AML16"/>
     </row>
-    <row r="17" spans="1:1026" s="26" customFormat="1">
-      <c r="A17" s="24" t="s">
+    <row r="17" spans="1:1026" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
         <v>143</v>
       </c>
       <c r="B17" t="s">
         <v>184</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="25">
         <v>2</v>
       </c>
-      <c r="E17" s="40" t="s">
+      <c r="E17" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="F17" s="40" t="s">
+      <c r="F17" s="39" t="s">
         <v>235</v>
       </c>
+      <c r="K17"/>
+      <c r="P17"/>
     </row>
-    <row r="19" spans="1:1026">
+    <row r="18" spans="1:1026" x14ac:dyDescent="0.25">
+      <c r="K18"/>
+      <c r="P18"/>
+    </row>
+    <row r="19" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>28</v>
       </c>
@@ -15381,7 +15409,7 @@
       <c r="E19" t="s">
         <v>208</v>
       </c>
-      <c r="F19" s="27" t="s">
+      <c r="F19" s="26" t="s">
         <v>148</v>
       </c>
       <c r="G19"/>
@@ -16407,13 +16435,13 @@
       <c r="AMK19"/>
       <c r="AML19"/>
     </row>
-    <row r="20" spans="1:1026">
+    <row r="20" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20"/>
-      <c r="F20" s="28"/>
+      <c r="F20" s="27"/>
       <c r="G20"/>
       <c r="H20"/>
       <c r="I20"/>
@@ -17435,7 +17463,7 @@
       <c r="AMK20"/>
       <c r="AML20"/>
     </row>
-    <row r="21" spans="1:1026">
+    <row r="21" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>30</v>
       </c>
@@ -17457,7 +17485,7 @@
       <c r="G21" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H21" s="27">
+      <c r="H21" s="26">
         <v>40.359383333333334</v>
       </c>
       <c r="I21"/>
@@ -18478,7 +18506,7 @@
       <c r="AMK21"/>
       <c r="AML21"/>
     </row>
-    <row r="22" spans="1:1026">
+    <row r="22" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>30</v>
       </c>
@@ -18500,7 +18528,7 @@
       <c r="G22" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H22" s="27">
+      <c r="H22" s="26">
         <v>-70.885300000000001</v>
       </c>
       <c r="I22"/>
@@ -19521,15 +19549,15 @@
       <c r="AMK22"/>
       <c r="AML22"/>
     </row>
-    <row r="23" spans="1:1026">
+    <row r="23" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
-      <c r="F23" s="28"/>
+      <c r="F23" s="27"/>
       <c r="G23"/>
-      <c r="H23" s="28"/>
+      <c r="H23" s="27"/>
       <c r="I23"/>
       <c r="K23"/>
       <c r="L23"/>
@@ -20548,7 +20576,7 @@
       <c r="AMK23"/>
       <c r="AML23"/>
     </row>
-    <row r="24" spans="1:1026">
+    <row r="24" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>31</v>
       </c>
@@ -20570,7 +20598,7 @@
       <c r="G24" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="27">
+      <c r="H24" s="26">
         <v>40.359383333333334</v>
       </c>
       <c r="I24"/>
@@ -21591,7 +21619,7 @@
       <c r="AMK24"/>
       <c r="AML24"/>
     </row>
-    <row r="25" spans="1:1026">
+    <row r="25" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>31</v>
       </c>
@@ -21613,7 +21641,7 @@
       <c r="G25" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H25" s="27">
+      <c r="H25" s="26">
         <v>-70.885300000000001</v>
       </c>
       <c r="I25"/>
@@ -22634,15 +22662,15 @@
       <c r="AMK25"/>
       <c r="AML25"/>
     </row>
-    <row r="26" spans="1:1026">
+    <row r="26" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26"/>
-      <c r="F26" s="28"/>
+      <c r="F26" s="27"/>
       <c r="G26"/>
-      <c r="H26" s="28"/>
+      <c r="H26" s="27"/>
       <c r="I26"/>
       <c r="K26"/>
       <c r="L26"/>
@@ -23661,7 +23689,7 @@
       <c r="AMK26"/>
       <c r="AML26"/>
     </row>
-    <row r="27" spans="1:1026">
+    <row r="27" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>32</v>
       </c>
@@ -23677,13 +23705,13 @@
       <c r="E27" t="s">
         <v>202</v>
       </c>
-      <c r="F27" s="27" t="s">
+      <c r="F27" s="26" t="s">
         <v>149</v>
       </c>
       <c r="G27" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="H27" s="27">
+      <c r="H27" s="26">
         <v>17533</v>
       </c>
       <c r="I27"/>
@@ -24704,7 +24732,7 @@
       <c r="AMK27"/>
       <c r="AML27"/>
     </row>
-    <row r="28" spans="1:1026">
+    <row r="28" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>32</v>
       </c>
@@ -24720,13 +24748,13 @@
       <c r="E28" t="s">
         <v>202</v>
       </c>
-      <c r="F28" s="27" t="s">
+      <c r="F28" s="26" t="s">
         <v>149</v>
       </c>
       <c r="G28" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="H28" s="27">
+      <c r="H28" s="26">
         <v>101</v>
       </c>
       <c r="I28"/>
@@ -25747,7 +25775,7 @@
       <c r="AMK28"/>
       <c r="AML28"/>
     </row>
-    <row r="29" spans="1:1026">
+    <row r="29" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>32</v>
       </c>
@@ -25763,13 +25791,13 @@
       <c r="E29" t="s">
         <v>202</v>
       </c>
-      <c r="F29" s="27" t="s">
+      <c r="F29" s="26" t="s">
         <v>149</v>
       </c>
       <c r="G29" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H29" s="27">
+      <c r="H29" s="26">
         <v>2229</v>
       </c>
       <c r="I29"/>
@@ -26790,7 +26818,7 @@
       <c r="AMK29"/>
       <c r="AML29"/>
     </row>
-    <row r="30" spans="1:1026">
+    <row r="30" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>32</v>
       </c>
@@ -26806,13 +26834,13 @@
       <c r="E30" t="s">
         <v>202</v>
       </c>
-      <c r="F30" s="27" t="s">
+      <c r="F30" s="26" t="s">
         <v>149</v>
       </c>
       <c r="G30" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H30" s="27">
+      <c r="H30" s="26">
         <v>38502</v>
       </c>
       <c r="I30"/>
@@ -27833,7 +27861,7 @@
       <c r="AMK30"/>
       <c r="AML30"/>
     </row>
-    <row r="31" spans="1:1026">
+    <row r="31" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>32</v>
       </c>
@@ -27849,13 +27877,13 @@
       <c r="E31" t="s">
         <v>202</v>
       </c>
-      <c r="F31" s="27" t="s">
+      <c r="F31" s="26" t="s">
         <v>149</v>
       </c>
       <c r="G31" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H31" s="32">
+      <c r="H31" s="31">
         <v>0</v>
       </c>
       <c r="I31"/>
@@ -28876,7 +28904,7 @@
       <c r="AMK31"/>
       <c r="AML31"/>
     </row>
-    <row r="32" spans="1:1026">
+    <row r="32" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>32</v>
       </c>
@@ -28892,13 +28920,13 @@
       <c r="E32" t="s">
         <v>202</v>
       </c>
-      <c r="F32" s="27" t="s">
+      <c r="F32" s="26" t="s">
         <v>149</v>
       </c>
       <c r="G32" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="H32" s="32">
+      <c r="H32" s="31">
         <v>1</v>
       </c>
       <c r="I32"/>
@@ -29919,7 +29947,7 @@
       <c r="AMK32"/>
       <c r="AML32"/>
     </row>
-    <row r="33" spans="1:1026">
+    <row r="33" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>32</v>
       </c>
@@ -29935,13 +29963,13 @@
       <c r="E33" t="s">
         <v>202</v>
       </c>
-      <c r="F33" s="27" t="s">
+      <c r="F33" s="26" t="s">
         <v>149</v>
       </c>
       <c r="G33" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="H33" s="31">
+      <c r="H33" s="30">
         <v>35</v>
       </c>
       <c r="I33" s="14" t="s">
@@ -30964,13 +30992,13 @@
       <c r="AMK33"/>
       <c r="AML33"/>
     </row>
-    <row r="34" spans="1:1026">
+    <row r="34" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A34"/>
       <c r="B34"/>
       <c r="C34"/>
       <c r="D34"/>
       <c r="E34"/>
-      <c r="F34" s="28"/>
+      <c r="F34" s="27"/>
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34"/>
@@ -31991,7 +32019,7 @@
       <c r="AMK34"/>
       <c r="AML34"/>
     </row>
-    <row r="35" spans="1:1026">
+    <row r="35" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>40</v>
       </c>
@@ -32007,13 +32035,13 @@
       <c r="E35" t="s">
         <v>201</v>
       </c>
-      <c r="F35" s="27" t="s">
+      <c r="F35" s="26" t="s">
         <v>150</v>
       </c>
       <c r="G35" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="H35" s="27">
+      <c r="H35" s="26">
         <v>17533</v>
       </c>
       <c r="I35"/>
@@ -33034,7 +33062,7 @@
       <c r="AMK35"/>
       <c r="AML35"/>
     </row>
-    <row r="36" spans="1:1026">
+    <row r="36" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>40</v>
       </c>
@@ -33050,13 +33078,13 @@
       <c r="E36" t="s">
         <v>201</v>
       </c>
-      <c r="F36" s="27" t="s">
+      <c r="F36" s="26" t="s">
         <v>150</v>
       </c>
       <c r="G36" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="H36" s="27">
+      <c r="H36" s="26">
         <v>101</v>
       </c>
       <c r="I36"/>
@@ -34077,7 +34105,7 @@
       <c r="AMK36"/>
       <c r="AML36"/>
     </row>
-    <row r="37" spans="1:1026">
+    <row r="37" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>40</v>
       </c>
@@ -34093,13 +34121,13 @@
       <c r="E37" t="s">
         <v>201</v>
       </c>
-      <c r="F37" s="27" t="s">
+      <c r="F37" s="26" t="s">
         <v>150</v>
       </c>
       <c r="G37" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H37" s="27">
+      <c r="H37" s="26">
         <v>2229</v>
       </c>
       <c r="I37"/>
@@ -35120,7 +35148,7 @@
       <c r="AMK37"/>
       <c r="AML37"/>
     </row>
-    <row r="38" spans="1:1026">
+    <row r="38" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>40</v>
       </c>
@@ -35136,13 +35164,13 @@
       <c r="E38" t="s">
         <v>201</v>
       </c>
-      <c r="F38" s="27" t="s">
+      <c r="F38" s="26" t="s">
         <v>150</v>
       </c>
       <c r="G38" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H38" s="27">
+      <c r="H38" s="26">
         <v>38502</v>
       </c>
       <c r="I38"/>
@@ -36163,7 +36191,7 @@
       <c r="AMK38"/>
       <c r="AML38"/>
     </row>
-    <row r="39" spans="1:1026">
+    <row r="39" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>40</v>
       </c>
@@ -36179,13 +36207,13 @@
       <c r="E39" t="s">
         <v>201</v>
       </c>
-      <c r="F39" s="27" t="s">
+      <c r="F39" s="26" t="s">
         <v>150</v>
       </c>
       <c r="G39" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="H39" s="32">
+      <c r="H39" s="31">
         <v>0</v>
       </c>
       <c r="I39"/>
@@ -37206,7 +37234,7 @@
       <c r="AMK39"/>
       <c r="AML39"/>
     </row>
-    <row r="40" spans="1:1026">
+    <row r="40" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>40</v>
       </c>
@@ -37222,13 +37250,13 @@
       <c r="E40" t="s">
         <v>201</v>
       </c>
-      <c r="F40" s="27" t="s">
+      <c r="F40" s="26" t="s">
         <v>150</v>
       </c>
       <c r="G40" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="H40" s="32">
+      <c r="H40" s="31">
         <v>1</v>
       </c>
       <c r="I40"/>
@@ -38249,7 +38277,7 @@
       <c r="AMK40"/>
       <c r="AML40"/>
     </row>
-    <row r="41" spans="1:1026">
+    <row r="41" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
         <v>40</v>
       </c>
@@ -38265,13 +38293,13 @@
       <c r="E41" t="s">
         <v>201</v>
       </c>
-      <c r="F41" s="27" t="s">
+      <c r="F41" s="26" t="s">
         <v>150</v>
       </c>
       <c r="G41" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="H41" s="31">
+      <c r="H41" s="30">
         <v>35</v>
       </c>
       <c r="I41" s="14" t="s">
@@ -39294,13 +39322,13 @@
       <c r="AMK41"/>
       <c r="AML41"/>
     </row>
-    <row r="42" spans="1:1026">
+    <row r="42" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
       <c r="D42"/>
       <c r="E42"/>
-      <c r="F42" s="28"/>
+      <c r="F42" s="27"/>
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42"/>
@@ -40321,7 +40349,7 @@
       <c r="AMK42"/>
       <c r="AML42"/>
     </row>
-    <row r="43" spans="1:1026">
+    <row r="43" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
         <v>41</v>
       </c>
@@ -40343,7 +40371,7 @@
       <c r="G43" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H43" s="27" t="s">
+      <c r="H43" s="26" t="s">
         <v>161</v>
       </c>
       <c r="I43"/>
@@ -41364,7 +41392,7 @@
       <c r="AMK43"/>
       <c r="AML43"/>
     </row>
-    <row r="44" spans="1:1026">
+    <row r="44" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>41</v>
       </c>
@@ -41386,7 +41414,7 @@
       <c r="G44" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="H44" s="27" t="s">
+      <c r="H44" s="26" t="s">
         <v>162</v>
       </c>
       <c r="I44"/>
@@ -42407,7 +42435,7 @@
       <c r="AMK44"/>
       <c r="AML44"/>
     </row>
-    <row r="45" spans="1:1026">
+    <row r="45" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
         <v>41</v>
       </c>
@@ -42429,7 +42457,7 @@
       <c r="G45" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="H45" s="27">
+      <c r="H45" s="26">
         <v>19.5</v>
       </c>
       <c r="I45"/>
@@ -43451,7 +43479,7 @@
       <c r="AMK45"/>
       <c r="AML45"/>
     </row>
-    <row r="46" spans="1:1026">
+    <row r="46" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
         <v>41</v>
       </c>
@@ -43473,7 +43501,7 @@
       <c r="G46" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="H46" s="27" t="s">
+      <c r="H46" s="26" t="s">
         <v>163</v>
       </c>
       <c r="I46"/>
@@ -44495,7 +44523,7 @@
       <c r="AMK46"/>
       <c r="AML46"/>
     </row>
-    <row r="47" spans="1:1026">
+    <row r="47" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>41</v>
       </c>
@@ -44517,7 +44545,7 @@
       <c r="G47" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H47" s="27" t="s">
+      <c r="H47" s="26" t="s">
         <v>164</v>
       </c>
       <c r="I47"/>
@@ -45539,7 +45567,7 @@
       <c r="AMK47"/>
       <c r="AML47"/>
     </row>
-    <row r="48" spans="1:1026">
+    <row r="48" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>41</v>
       </c>
@@ -45561,7 +45589,7 @@
       <c r="G48" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="H48" s="27" t="s">
+      <c r="H48" s="26" t="s">
         <v>165</v>
       </c>
       <c r="I48"/>
@@ -46583,7 +46611,7 @@
       <c r="AMK48"/>
       <c r="AML48"/>
     </row>
-    <row r="49" spans="1:1026">
+    <row r="49" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>41</v>
       </c>
@@ -46605,7 +46633,7 @@
       <c r="G49" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="H49" s="27" t="s">
+      <c r="H49" s="26" t="s">
         <v>157</v>
       </c>
       <c r="I49"/>
@@ -47627,7 +47655,7 @@
       <c r="AMK49"/>
       <c r="AML49"/>
     </row>
-    <row r="50" spans="1:1026" s="20" customFormat="1">
+    <row r="50" spans="1:1026" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
         <v>41</v>
       </c>
@@ -47649,22 +47677,24 @@
       <c r="G50" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="H50" s="36" t="s">
+      <c r="H50" s="35" t="s">
         <v>158</v>
       </c>
+      <c r="K50"/>
     </row>
-    <row r="51" spans="1:1026">
+    <row r="51" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51"/>
       <c r="D51"/>
       <c r="E51"/>
-      <c r="F51" s="28"/>
+      <c r="F51" s="27"/>
       <c r="G51"/>
-      <c r="H51" s="28"/>
+      <c r="H51" s="27"/>
       <c r="I51"/>
+      <c r="K51"/>
     </row>
-    <row r="52" spans="1:1026">
+    <row r="52" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>50</v>
       </c>
@@ -47686,12 +47716,13 @@
       <c r="G52" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H52" s="27" t="s">
+      <c r="H52" s="26" t="s">
         <v>166</v>
       </c>
       <c r="I52"/>
+      <c r="K52"/>
     </row>
-    <row r="53" spans="1:1026">
+    <row r="53" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
         <v>50</v>
       </c>
@@ -47713,12 +47744,13 @@
       <c r="G53" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="H53" s="27" t="s">
+      <c r="H53" s="26" t="s">
         <v>167</v>
       </c>
       <c r="I53"/>
+      <c r="K53"/>
     </row>
-    <row r="54" spans="1:1026">
+    <row r="54" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
         <v>50</v>
       </c>
@@ -47740,12 +47772,13 @@
       <c r="G54" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="H54" s="27">
+      <c r="H54" s="26">
         <v>17.7</v>
       </c>
       <c r="I54"/>
+      <c r="K54"/>
     </row>
-    <row r="55" spans="1:1026">
+    <row r="55" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
         <v>50</v>
       </c>
@@ -47767,12 +47800,13 @@
       <c r="G55" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="H55" s="27" t="s">
+      <c r="H55" s="26" t="s">
         <v>168</v>
       </c>
       <c r="I55"/>
+      <c r="K55"/>
     </row>
-    <row r="56" spans="1:1026">
+    <row r="56" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
         <v>50</v>
       </c>
@@ -47794,12 +47828,13 @@
       <c r="G56" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="H56" s="27" t="s">
+      <c r="H56" s="26" t="s">
         <v>169</v>
       </c>
       <c r="I56"/>
+      <c r="K56"/>
     </row>
-    <row r="57" spans="1:1026">
+    <row r="57" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
         <v>50</v>
       </c>
@@ -47821,12 +47856,13 @@
       <c r="G57" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="H57" s="27" t="s">
+      <c r="H57" s="26" t="s">
         <v>170</v>
       </c>
       <c r="I57"/>
+      <c r="K57"/>
     </row>
-    <row r="58" spans="1:1026">
+    <row r="58" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
         <v>50</v>
       </c>
@@ -47848,12 +47884,13 @@
       <c r="G58" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="H58" s="27" t="s">
+      <c r="H58" s="26" t="s">
         <v>159</v>
       </c>
       <c r="I58"/>
+      <c r="K58"/>
     </row>
-    <row r="59" spans="1:1026">
+    <row r="59" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
         <v>50</v>
       </c>
@@ -47875,23 +47912,25 @@
       <c r="G59" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="H59" s="27" t="s">
+      <c r="H59" s="26" t="s">
         <v>160</v>
       </c>
       <c r="I59"/>
+      <c r="K59"/>
     </row>
-    <row r="60" spans="1:1026">
+    <row r="60" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A60"/>
       <c r="B60"/>
       <c r="C60"/>
       <c r="D60"/>
       <c r="E60"/>
-      <c r="F60" s="28"/>
+      <c r="F60" s="27"/>
       <c r="G60"/>
-      <c r="H60" s="28"/>
+      <c r="H60" s="27"/>
       <c r="I60"/>
+      <c r="K60"/>
     </row>
-    <row r="61" spans="1:1026">
+    <row r="61" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
         <v>51</v>
       </c>
@@ -47907,18 +47946,19 @@
       <c r="E61" t="s">
         <v>196</v>
       </c>
-      <c r="F61" s="27">
+      <c r="F61" s="26">
         <v>1222</v>
       </c>
       <c r="G61" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="H61" s="27">
+      <c r="H61" s="26">
         <v>64</v>
       </c>
       <c r="I61"/>
+      <c r="K61"/>
     </row>
-    <row r="62" spans="1:1026">
+    <row r="62" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
         <v>51</v>
       </c>
@@ -47934,18 +47974,19 @@
       <c r="E62" t="s">
         <v>196</v>
       </c>
-      <c r="F62" s="27">
+      <c r="F62" s="26">
         <v>1222</v>
       </c>
       <c r="G62" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="H62" s="35">
+      <c r="H62" s="34">
         <v>1.9530000000000002E-6</v>
       </c>
       <c r="I62"/>
+      <c r="K62"/>
     </row>
-    <row r="63" spans="1:1026">
+    <row r="63" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
         <v>51</v>
       </c>
@@ -47961,18 +48002,19 @@
       <c r="E63" t="s">
         <v>196</v>
       </c>
-      <c r="F63" s="27">
+      <c r="F63" s="26">
         <v>1222</v>
       </c>
       <c r="G63" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="H63" s="27">
+      <c r="H63" s="26">
         <v>47</v>
       </c>
       <c r="I63"/>
+      <c r="K63"/>
     </row>
-    <row r="64" spans="1:1026">
+    <row r="64" spans="1:1026" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
         <v>51</v>
       </c>
@@ -47988,18 +48030,19 @@
       <c r="E64" t="s">
         <v>196</v>
       </c>
-      <c r="F64" s="27">
+      <c r="F64" s="26">
         <v>1222</v>
       </c>
       <c r="G64" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="H64" s="27">
+      <c r="H64" s="26">
         <v>1.21E-2</v>
       </c>
       <c r="I64"/>
+      <c r="K64"/>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
         <v>51</v>
       </c>
@@ -48015,18 +48058,19 @@
       <c r="E65" t="s">
         <v>196</v>
       </c>
-      <c r="F65" s="27">
+      <c r="F65" s="26">
         <v>1222</v>
       </c>
       <c r="G65" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="H65" s="27">
+      <c r="H65" s="26">
         <v>44</v>
       </c>
       <c r="I65"/>
+      <c r="K65"/>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
         <v>51</v>
       </c>
@@ -48042,18 +48086,19 @@
       <c r="E66" t="s">
         <v>196</v>
       </c>
-      <c r="F66" s="27">
+      <c r="F66" s="26">
         <v>1222</v>
       </c>
       <c r="G66" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="H66" s="27">
+      <c r="H66" s="26">
         <v>9.0399999999999994E-2</v>
       </c>
       <c r="I66"/>
+      <c r="K66"/>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
         <v>51</v>
       </c>
@@ -48069,20 +48114,21 @@
       <c r="E67" t="s">
         <v>196</v>
       </c>
-      <c r="F67" s="27">
+      <c r="F67" s="26">
         <v>1222</v>
       </c>
       <c r="G67" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="H67" s="33">
+      <c r="H67" s="32">
         <v>124</v>
       </c>
       <c r="I67" s="14" t="s">
         <v>25</v>
       </c>
+      <c r="K67"/>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
         <v>51</v>
       </c>
@@ -48098,20 +48144,21 @@
       <c r="E68" t="s">
         <v>196</v>
       </c>
-      <c r="F68" s="27">
+      <c r="F68" s="26">
         <v>1222</v>
       </c>
       <c r="G68" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="H68" s="33">
+      <c r="H68" s="32">
         <v>700</v>
       </c>
       <c r="I68" s="14" t="s">
         <v>25</v>
       </c>
+      <c r="K68"/>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
         <v>51</v>
       </c>
@@ -48127,20 +48174,21 @@
       <c r="E69" t="s">
         <v>196</v>
       </c>
-      <c r="F69" s="27">
+      <c r="F69" s="26">
         <v>1222</v>
       </c>
       <c r="G69" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="H69" s="33">
+      <c r="H69" s="32">
         <v>1.0760000000000001</v>
       </c>
       <c r="I69" s="14" t="s">
         <v>25</v>
       </c>
+      <c r="K69"/>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
         <v>51</v>
       </c>
@@ -48156,31 +48204,33 @@
       <c r="E70" t="s">
         <v>196</v>
       </c>
-      <c r="F70" s="27">
+      <c r="F70" s="26">
         <v>1222</v>
       </c>
       <c r="G70" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="H70" s="33">
+      <c r="H70" s="32">
         <v>3.9E-2</v>
       </c>
       <c r="I70" s="14" t="s">
         <v>25</v>
       </c>
+      <c r="K70"/>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71"/>
       <c r="B71"/>
       <c r="C71"/>
       <c r="D71"/>
       <c r="E71"/>
-      <c r="F71" s="28"/>
+      <c r="F71" s="27"/>
       <c r="G71"/>
       <c r="H71"/>
       <c r="I71"/>
+      <c r="K71"/>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="14" t="s">
         <v>62</v>
       </c>
@@ -48196,18 +48246,19 @@
       <c r="E72" t="s">
         <v>195</v>
       </c>
-      <c r="F72" s="27" t="s">
+      <c r="F72" s="26" t="s">
         <v>151</v>
       </c>
       <c r="G72" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H72" s="27">
+      <c r="H72" s="26">
         <v>40.359383333333334</v>
       </c>
       <c r="I72"/>
+      <c r="K72"/>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
         <v>62</v>
       </c>
@@ -48223,18 +48274,19 @@
       <c r="E73" t="s">
         <v>195</v>
       </c>
-      <c r="F73" s="27" t="s">
+      <c r="F73" s="26" t="s">
         <v>151</v>
       </c>
       <c r="G73" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H73" s="27">
+      <c r="H73" s="26">
         <v>-70.885300000000001</v>
       </c>
       <c r="I73"/>
+      <c r="K73"/>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="s">
         <v>62</v>
       </c>
@@ -48250,18 +48302,19 @@
       <c r="E74" t="s">
         <v>195</v>
       </c>
-      <c r="F74" s="27" t="s">
+      <c r="F74" s="26" t="s">
         <v>151</v>
       </c>
       <c r="G74" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="H74" s="27">
+      <c r="H74" s="26">
         <v>1.256273E-3</v>
       </c>
       <c r="I74"/>
+      <c r="K74"/>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
         <v>62</v>
       </c>
@@ -48277,18 +48330,19 @@
       <c r="E75" t="s">
         <v>195</v>
       </c>
-      <c r="F75" s="27" t="s">
+      <c r="F75" s="26" t="s">
         <v>151</v>
       </c>
       <c r="G75" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="H75" s="27">
+      <c r="H75" s="26">
         <v>2.7381850000000001E-4</v>
       </c>
       <c r="I75"/>
+      <c r="K75"/>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
         <v>62</v>
       </c>
@@ -48304,18 +48358,19 @@
       <c r="E76" t="s">
         <v>195</v>
       </c>
-      <c r="F76" s="27" t="s">
+      <c r="F76" s="26" t="s">
         <v>151</v>
       </c>
       <c r="G76" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="H76" s="27">
+      <c r="H76" s="26">
         <v>-1.1250199999999999E-6</v>
       </c>
       <c r="I76"/>
+      <c r="K76"/>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
         <v>62</v>
       </c>
@@ -48331,18 +48386,19 @@
       <c r="E77" t="s">
         <v>195</v>
       </c>
-      <c r="F77" s="27" t="s">
+      <c r="F77" s="26" t="s">
         <v>151</v>
       </c>
       <c r="G77" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="H77" s="27">
+      <c r="H77" s="26">
         <v>1.8397970000000001E-7</v>
       </c>
       <c r="I77"/>
+      <c r="K77"/>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="14" t="s">
         <v>62</v>
       </c>
@@ -48358,18 +48414,19 @@
       <c r="E78" t="s">
         <v>195</v>
       </c>
-      <c r="F78" s="27" t="s">
+      <c r="F78" s="26" t="s">
         <v>151</v>
       </c>
       <c r="G78" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="H78" s="27">
+      <c r="H78" s="26">
         <v>-65.473010000000002</v>
       </c>
       <c r="I78"/>
+      <c r="K78"/>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="14" t="s">
         <v>62</v>
       </c>
@@ -48385,18 +48442,19 @@
       <c r="E79" t="s">
         <v>195</v>
       </c>
-      <c r="F79" s="27" t="s">
+      <c r="F79" s="26" t="s">
         <v>151</v>
       </c>
       <c r="G79" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="H79" s="27">
+      <c r="H79" s="26">
         <v>52.401969999999999</v>
       </c>
       <c r="I79"/>
+      <c r="K79"/>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
         <v>62</v>
       </c>
@@ -48412,18 +48470,19 @@
       <c r="E80" t="s">
         <v>195</v>
       </c>
-      <c r="F80" s="27" t="s">
+      <c r="F80" s="26" t="s">
         <v>151</v>
       </c>
       <c r="G80" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="H80" s="27">
+      <c r="H80" s="26">
         <v>-0.52704479999999998</v>
       </c>
       <c r="I80"/>
+      <c r="K80"/>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
         <v>62</v>
       </c>
@@ -48439,18 +48498,19 @@
       <c r="E81" t="s">
         <v>195</v>
       </c>
-      <c r="F81" s="27" t="s">
+      <c r="F81" s="26" t="s">
         <v>151</v>
       </c>
       <c r="G81" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="H81" s="27">
+      <c r="H81" s="26">
         <v>509054.5</v>
       </c>
       <c r="I81"/>
+      <c r="K81"/>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
         <v>62</v>
       </c>
@@ -48466,18 +48526,19 @@
       <c r="E82" t="s">
         <v>195</v>
       </c>
-      <c r="F82" s="27" t="s">
+      <c r="F82" s="26" t="s">
         <v>151</v>
       </c>
       <c r="G82" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="H82" s="27">
+      <c r="H82" s="26">
         <v>-39.351739999999999</v>
       </c>
       <c r="I82"/>
+      <c r="K82"/>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="14" t="s">
         <v>62</v>
       </c>
@@ -48493,19 +48554,20 @@
       <c r="E83" t="s">
         <v>195</v>
       </c>
-      <c r="F83" s="27" t="s">
+      <c r="F83" s="26" t="s">
         <v>151</v>
       </c>
       <c r="G83" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="H83" s="27">
+      <c r="H83" s="26">
         <v>0.58878529999999996</v>
       </c>
       <c r="I83"/>
       <c r="J83"/>
+      <c r="K83"/>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
         <v>62</v>
       </c>
@@ -48521,19 +48583,20 @@
       <c r="E84" t="s">
         <v>195</v>
       </c>
-      <c r="F84" s="27" t="s">
+      <c r="F84" s="26" t="s">
         <v>151</v>
       </c>
       <c r="G84" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H84" s="27">
+      <c r="H84" s="26">
         <v>24.950130000000001</v>
       </c>
       <c r="I84"/>
       <c r="J84"/>
+      <c r="K84"/>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
         <v>62</v>
       </c>
@@ -48549,19 +48612,20 @@
       <c r="E85" t="s">
         <v>195</v>
       </c>
-      <c r="F85" s="27" t="s">
+      <c r="F85" s="26" t="s">
         <v>151</v>
       </c>
       <c r="G85" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="H85" s="27">
+      <c r="H85" s="26">
         <v>-9.7499999999999996E-4</v>
       </c>
       <c r="I85"/>
       <c r="J85"/>
+      <c r="K85"/>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
         <v>62</v>
       </c>
@@ -48577,18 +48641,19 @@
       <c r="E86" t="s">
         <v>195</v>
       </c>
-      <c r="F86" s="27" t="s">
+      <c r="F86" s="26" t="s">
         <v>151</v>
       </c>
       <c r="G86" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="H86" s="27">
+      <c r="H86" s="26">
         <v>0</v>
       </c>
       <c r="I86"/>
+      <c r="K86"/>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
         <v>62</v>
       </c>
@@ -48604,18 +48669,19 @@
       <c r="E87" t="s">
         <v>195</v>
       </c>
-      <c r="F87" s="27" t="s">
+      <c r="F87" s="26" t="s">
         <v>151</v>
       </c>
       <c r="G87" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="H87" s="27">
+      <c r="H87" s="26">
         <v>-0.27649109999999999</v>
       </c>
       <c r="I87"/>
+      <c r="K87"/>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
         <v>62</v>
       </c>
@@ -48631,18 +48697,19 @@
       <c r="E88" t="s">
         <v>195</v>
       </c>
-      <c r="F88" s="27" t="s">
+      <c r="F88" s="26" t="s">
         <v>151</v>
       </c>
       <c r="G88" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="H88" s="27">
+      <c r="H88" s="26">
         <v>4.674716E-4</v>
       </c>
       <c r="I88"/>
+      <c r="K88"/>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
         <v>62</v>
       </c>
@@ -48658,18 +48725,19 @@
       <c r="E89" t="s">
         <v>195</v>
       </c>
-      <c r="F89" s="27" t="s">
+      <c r="F89" s="26" t="s">
         <v>151</v>
       </c>
       <c r="G89" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="H89" s="27">
+      <c r="H89" s="26">
         <v>-4.0824430000000002E-12</v>
       </c>
       <c r="I89"/>
+      <c r="K89"/>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
         <v>62</v>
       </c>
@@ -48685,18 +48753,19 @@
       <c r="E90" t="s">
         <v>195</v>
       </c>
-      <c r="F90" s="27" t="s">
+      <c r="F90" s="26" t="s">
         <v>151</v>
       </c>
       <c r="G90" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="H90" s="27">
+      <c r="H90" s="26">
         <v>-0.97573339999999997</v>
       </c>
       <c r="I90"/>
+      <c r="K90"/>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="14" t="s">
         <v>62</v>
       </c>
@@ -48712,18 +48781,19 @@
       <c r="E91" t="s">
         <v>195</v>
       </c>
-      <c r="F91" s="27" t="s">
+      <c r="F91" s="26" t="s">
         <v>151</v>
       </c>
       <c r="G91" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="H91" s="27">
+      <c r="H91" s="26">
         <v>0.14553940000000001</v>
       </c>
       <c r="I91"/>
+      <c r="K91"/>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="14" t="s">
         <v>62</v>
       </c>
@@ -48739,18 +48809,19 @@
       <c r="E92" t="s">
         <v>195</v>
       </c>
-      <c r="F92" s="27" t="s">
+      <c r="F92" s="26" t="s">
         <v>151</v>
       </c>
       <c r="G92" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="H92" s="27">
+      <c r="H92" s="26">
         <v>-1.5039409999999999E-4</v>
       </c>
       <c r="I92"/>
+      <c r="K92"/>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="14" t="s">
         <v>62</v>
       </c>
@@ -48766,18 +48837,19 @@
       <c r="E93" t="s">
         <v>195</v>
       </c>
-      <c r="F93" s="27" t="s">
+      <c r="F93" s="26" t="s">
         <v>151</v>
       </c>
       <c r="G93" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="H93" s="27">
+      <c r="H93" s="26">
         <v>3.1549679999999999E-5</v>
       </c>
       <c r="I93"/>
+      <c r="K93"/>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="14" t="s">
         <v>62</v>
       </c>
@@ -48793,18 +48865,19 @@
       <c r="E94" t="s">
         <v>195</v>
       </c>
-      <c r="F94" s="27" t="s">
+      <c r="F94" s="26" t="s">
         <v>151</v>
       </c>
       <c r="G94" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="H94" s="27">
+      <c r="H94" s="26">
         <v>-9.5700000000000003E-8</v>
       </c>
       <c r="I94"/>
+      <c r="K94"/>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="14" t="s">
         <v>62</v>
       </c>
@@ -48820,29 +48893,31 @@
       <c r="E95" t="s">
         <v>195</v>
       </c>
-      <c r="F95" s="27" t="s">
+      <c r="F95" s="26" t="s">
         <v>151</v>
       </c>
       <c r="G95" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="H95" s="27">
+      <c r="H95" s="26">
         <v>3.2499999999999998E-6</v>
       </c>
       <c r="I95"/>
+      <c r="K95"/>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96"/>
       <c r="B96"/>
       <c r="C96"/>
       <c r="D96"/>
       <c r="E96"/>
-      <c r="F96" s="28"/>
+      <c r="F96" s="27"/>
       <c r="G96"/>
       <c r="H96"/>
       <c r="I96"/>
+      <c r="K96"/>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="14" t="s">
         <v>85</v>
       </c>
@@ -48858,18 +48933,19 @@
       <c r="E97" t="s">
         <v>194</v>
       </c>
-      <c r="F97" s="27" t="s">
+      <c r="F97" s="26" t="s">
         <v>152</v>
       </c>
       <c r="G97" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H97" s="27">
+      <c r="H97" s="26">
         <v>40.359383333333334</v>
       </c>
       <c r="I97"/>
+      <c r="K97"/>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="14" t="s">
         <v>85</v>
       </c>
@@ -48885,18 +48961,19 @@
       <c r="E98" t="s">
         <v>194</v>
       </c>
-      <c r="F98" s="27" t="s">
+      <c r="F98" s="26" t="s">
         <v>152</v>
       </c>
       <c r="G98" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H98" s="27">
+      <c r="H98" s="26">
         <v>-70.885300000000001</v>
       </c>
       <c r="I98"/>
+      <c r="K98"/>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="14" t="s">
         <v>85</v>
       </c>
@@ -48912,18 +48989,19 @@
       <c r="E99" t="s">
         <v>194</v>
       </c>
-      <c r="F99" s="27" t="s">
+      <c r="F99" s="26" t="s">
         <v>152</v>
       </c>
       <c r="G99" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="H99" s="27">
+      <c r="H99" s="26">
         <v>1.260873E-3</v>
       </c>
       <c r="I99"/>
+      <c r="K99"/>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
         <v>85</v>
       </c>
@@ -48939,18 +49017,19 @@
       <c r="E100" t="s">
         <v>194</v>
       </c>
-      <c r="F100" s="27" t="s">
+      <c r="F100" s="26" t="s">
         <v>152</v>
       </c>
       <c r="G100" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="H100" s="27">
+      <c r="H100" s="26">
         <v>2.7196540000000002E-4</v>
       </c>
       <c r="I100"/>
+      <c r="K100"/>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="14" t="s">
         <v>85</v>
       </c>
@@ -48966,18 +49045,19 @@
       <c r="E101" t="s">
         <v>194</v>
       </c>
-      <c r="F101" s="27" t="s">
+      <c r="F101" s="26" t="s">
         <v>152</v>
       </c>
       <c r="G101" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="H101" s="27">
+      <c r="H101" s="26">
         <v>-9.804536E-7</v>
       </c>
       <c r="I101"/>
+      <c r="K101"/>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="14" t="s">
         <v>85</v>
       </c>
@@ -48993,18 +49073,19 @@
       <c r="E102" t="s">
         <v>194</v>
       </c>
-      <c r="F102" s="27" t="s">
+      <c r="F102" s="26" t="s">
         <v>152</v>
       </c>
       <c r="G102" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="H102" s="27">
+      <c r="H102" s="26">
         <v>1.780167E-7</v>
       </c>
       <c r="I102"/>
+      <c r="K102"/>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="14" t="s">
         <v>85</v>
       </c>
@@ -49020,18 +49101,19 @@
       <c r="E103" t="s">
         <v>194</v>
       </c>
-      <c r="F103" s="27" t="s">
+      <c r="F103" s="26" t="s">
         <v>152</v>
       </c>
       <c r="G103" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="H103" s="27">
+      <c r="H103" s="26">
         <v>-67.553910000000002</v>
       </c>
       <c r="I103"/>
+      <c r="K103"/>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="14" t="s">
         <v>85</v>
       </c>
@@ -49047,18 +49129,19 @@
       <c r="E104" t="s">
         <v>194</v>
       </c>
-      <c r="F104" s="27" t="s">
+      <c r="F104" s="26" t="s">
         <v>152</v>
       </c>
       <c r="G104" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="H104" s="27">
+      <c r="H104" s="26">
         <v>51.100990000000003</v>
       </c>
       <c r="I104"/>
+      <c r="K104"/>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
         <v>85</v>
       </c>
@@ -49074,18 +49157,19 @@
       <c r="E105" t="s">
         <v>194</v>
       </c>
-      <c r="F105" s="27" t="s">
+      <c r="F105" s="26" t="s">
         <v>152</v>
       </c>
       <c r="G105" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="H105" s="27">
+      <c r="H105" s="26">
         <v>-0.33188099999999998</v>
       </c>
       <c r="I105"/>
+      <c r="K105"/>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="14" t="s">
         <v>85</v>
       </c>
@@ -49101,18 +49185,19 @@
       <c r="E106" t="s">
         <v>194</v>
       </c>
-      <c r="F106" s="27" t="s">
+      <c r="F106" s="26" t="s">
         <v>152</v>
       </c>
       <c r="G106" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="H106" s="27">
+      <c r="H106" s="26">
         <v>525416.80000000005</v>
       </c>
       <c r="I106"/>
+      <c r="K106"/>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="14" t="s">
         <v>85</v>
       </c>
@@ -49128,18 +49213,19 @@
       <c r="E107" t="s">
         <v>194</v>
       </c>
-      <c r="F107" s="27" t="s">
+      <c r="F107" s="26" t="s">
         <v>152</v>
       </c>
       <c r="G107" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="H107" s="27">
+      <c r="H107" s="26">
         <v>2.8752270000000002</v>
       </c>
       <c r="I107"/>
+      <c r="K107"/>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="14" t="s">
         <v>85</v>
       </c>
@@ -49155,18 +49241,19 @@
       <c r="E108" t="s">
         <v>194</v>
       </c>
-      <c r="F108" s="27" t="s">
+      <c r="F108" s="26" t="s">
         <v>152</v>
       </c>
       <c r="G108" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="H108" s="27">
+      <c r="H108" s="26">
         <v>-9.0869469999999994E-2</v>
       </c>
       <c r="I108"/>
+      <c r="K108"/>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="14" t="s">
         <v>85</v>
       </c>
@@ -49182,18 +49269,19 @@
       <c r="E109" t="s">
         <v>194</v>
       </c>
-      <c r="F109" s="27" t="s">
+      <c r="F109" s="26" t="s">
         <v>152</v>
       </c>
       <c r="G109" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H109" s="27">
+      <c r="H109" s="26">
         <v>25.109629999999999</v>
       </c>
       <c r="I109"/>
+      <c r="K109"/>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="14" t="s">
         <v>85</v>
       </c>
@@ -49209,18 +49297,19 @@
       <c r="E110" t="s">
         <v>194</v>
       </c>
-      <c r="F110" s="27" t="s">
+      <c r="F110" s="26" t="s">
         <v>152</v>
       </c>
       <c r="G110" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="H110" s="27">
+      <c r="H110" s="26">
         <v>-6.7500000000000004E-4</v>
       </c>
       <c r="I110"/>
+      <c r="K110"/>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="14" t="s">
         <v>85</v>
       </c>
@@ -49236,18 +49325,19 @@
       <c r="E111" t="s">
         <v>194</v>
       </c>
-      <c r="F111" s="27" t="s">
+      <c r="F111" s="26" t="s">
         <v>152</v>
       </c>
       <c r="G111" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="H111" s="27">
+      <c r="H111" s="26">
         <v>0</v>
       </c>
       <c r="I111"/>
+      <c r="K111"/>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="14" t="s">
         <v>85</v>
       </c>
@@ -49263,18 +49353,19 @@
       <c r="E112" t="s">
         <v>194</v>
       </c>
-      <c r="F112" s="27" t="s">
+      <c r="F112" s="26" t="s">
         <v>152</v>
       </c>
       <c r="G112" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="H112" s="27">
+      <c r="H112" s="26">
         <v>3.1207929999999998E-2</v>
       </c>
       <c r="I112"/>
+      <c r="K112"/>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="14" t="s">
         <v>85</v>
       </c>
@@ -49290,18 +49381,19 @@
       <c r="E113" t="s">
         <v>194</v>
       </c>
-      <c r="F113" s="27" t="s">
+      <c r="F113" s="26" t="s">
         <v>152</v>
       </c>
       <c r="G113" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="H113" s="27">
+      <c r="H113" s="26">
         <v>1.5466919999999999E-3</v>
       </c>
       <c r="I113"/>
+      <c r="K113"/>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="14" t="s">
         <v>85</v>
       </c>
@@ -49317,18 +49409,19 @@
       <c r="E114" t="s">
         <v>194</v>
       </c>
-      <c r="F114" s="27" t="s">
+      <c r="F114" s="26" t="s">
         <v>152</v>
       </c>
       <c r="G114" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="H114" s="27">
+      <c r="H114" s="26">
         <v>5.5330189999999996E-12</v>
       </c>
       <c r="I114"/>
+      <c r="K114"/>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="14" t="s">
         <v>85</v>
       </c>
@@ -49344,18 +49437,19 @@
       <c r="E115" t="s">
         <v>194</v>
       </c>
-      <c r="F115" s="27" t="s">
+      <c r="F115" s="26" t="s">
         <v>152</v>
       </c>
       <c r="G115" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="H115" s="27">
+      <c r="H115" s="26">
         <v>-0.97371370000000002</v>
       </c>
       <c r="I115"/>
+      <c r="K115"/>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="14" t="s">
         <v>85</v>
       </c>
@@ -49371,18 +49465,19 @@
       <c r="E116" t="s">
         <v>194</v>
       </c>
-      <c r="F116" s="27" t="s">
+      <c r="F116" s="26" t="s">
         <v>152</v>
       </c>
       <c r="G116" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="H116" s="27">
+      <c r="H116" s="26">
         <v>0.15092559999999999</v>
       </c>
       <c r="I116"/>
+      <c r="K116"/>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="14" t="s">
         <v>85</v>
       </c>
@@ -49398,18 +49493,19 @@
       <c r="E117" t="s">
         <v>194</v>
       </c>
-      <c r="F117" s="27" t="s">
+      <c r="F117" s="26" t="s">
         <v>152</v>
       </c>
       <c r="G117" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="H117" s="27">
+      <c r="H117" s="26">
         <v>-1.5058270000000001E-4</v>
       </c>
       <c r="I117"/>
+      <c r="K117"/>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="14" t="s">
         <v>85</v>
       </c>
@@ -49425,18 +49521,19 @@
       <c r="E118" t="s">
         <v>194</v>
       </c>
-      <c r="F118" s="27" t="s">
+      <c r="F118" s="26" t="s">
         <v>152</v>
       </c>
       <c r="G118" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="H118" s="27">
+      <c r="H118" s="26">
         <v>3.3778990000000002E-5</v>
       </c>
       <c r="I118"/>
+      <c r="K118"/>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="14" t="s">
         <v>85</v>
       </c>
@@ -49452,18 +49549,19 @@
       <c r="E119" t="s">
         <v>194</v>
       </c>
-      <c r="F119" s="27" t="s">
+      <c r="F119" s="26" t="s">
         <v>152</v>
       </c>
       <c r="G119" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="H119" s="27">
+      <c r="H119" s="26">
         <v>-9.5700000000000003E-8</v>
       </c>
       <c r="I119"/>
+      <c r="K119"/>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="14" t="s">
         <v>85</v>
       </c>
@@ -49479,29 +49577,31 @@
       <c r="E120" t="s">
         <v>194</v>
       </c>
-      <c r="F120" s="27" t="s">
+      <c r="F120" s="26" t="s">
         <v>152</v>
       </c>
       <c r="G120" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="H120" s="27">
+      <c r="H120" s="26">
         <v>3.2499999999999998E-6</v>
       </c>
       <c r="I120"/>
+      <c r="K120"/>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121"/>
       <c r="B121"/>
       <c r="C121"/>
       <c r="D121"/>
       <c r="E121"/>
-      <c r="F121" s="28"/>
+      <c r="F121" s="27"/>
       <c r="G121"/>
-      <c r="H121" s="28"/>
+      <c r="H121" s="27"/>
       <c r="I121"/>
+      <c r="K121"/>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="14" t="s">
         <v>86</v>
       </c>
@@ -49517,18 +49617,19 @@
       <c r="E122" t="s">
         <v>193</v>
       </c>
-      <c r="F122" s="27">
+      <c r="F122" s="26">
         <v>130</v>
       </c>
       <c r="G122" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H122" s="27">
+      <c r="H122" s="26">
         <v>40.359383333333334</v>
       </c>
       <c r="I122"/>
+      <c r="K122"/>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="14" t="s">
         <v>86</v>
       </c>
@@ -49544,18 +49645,19 @@
       <c r="E123" t="s">
         <v>193</v>
       </c>
-      <c r="F123" s="27">
+      <c r="F123" s="26">
         <v>130</v>
       </c>
       <c r="G123" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H123" s="27">
+      <c r="H123" s="26">
         <v>-70.885300000000001</v>
       </c>
       <c r="I123"/>
+      <c r="K123"/>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="14" t="s">
         <v>86</v>
       </c>
@@ -49571,29 +49673,31 @@
       <c r="E124" t="s">
         <v>193</v>
       </c>
-      <c r="F124" s="27">
+      <c r="F124" s="26">
         <v>130</v>
       </c>
       <c r="G124" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="H124" s="27" t="s">
+      <c r="H124" s="26" t="s">
         <v>171</v>
       </c>
       <c r="I124"/>
+      <c r="K124"/>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125"/>
       <c r="B125"/>
       <c r="C125"/>
       <c r="D125"/>
       <c r="E125"/>
-      <c r="F125" s="28"/>
+      <c r="F125" s="27"/>
       <c r="G125"/>
-      <c r="H125" s="28"/>
+      <c r="H125" s="27"/>
       <c r="I125"/>
+      <c r="K125"/>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="14" t="s">
         <v>88</v>
       </c>
@@ -49609,18 +49713,19 @@
       <c r="E126" t="s">
         <v>192</v>
       </c>
-      <c r="F126" s="27">
+      <c r="F126" s="26">
         <v>225</v>
       </c>
       <c r="G126" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H126" s="27">
+      <c r="H126" s="26">
         <v>40.359383333333334</v>
       </c>
       <c r="I126"/>
+      <c r="K126"/>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="14" t="s">
         <v>88</v>
       </c>
@@ -49636,18 +49741,19 @@
       <c r="E127" t="s">
         <v>192</v>
       </c>
-      <c r="F127" s="27">
+      <c r="F127" s="26">
         <v>225</v>
       </c>
       <c r="G127" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H127" s="27">
+      <c r="H127" s="26">
         <v>-70.885300000000001</v>
       </c>
       <c r="I127"/>
+      <c r="K127"/>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="14" t="s">
         <v>88</v>
       </c>
@@ -49663,30 +49769,32 @@
       <c r="E128" t="s">
         <v>192</v>
       </c>
-      <c r="F128" s="27">
+      <c r="F128" s="26">
         <v>225</v>
       </c>
       <c r="G128" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="H128" s="27" t="s">
+      <c r="H128" s="26" t="s">
         <v>172</v>
       </c>
       <c r="I128"/>
+      <c r="K128"/>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129"/>
       <c r="B129"/>
       <c r="C129"/>
       <c r="D129"/>
       <c r="E129"/>
-      <c r="F129" s="28"/>
+      <c r="F129" s="27"/>
       <c r="G129"/>
       <c r="H129"/>
       <c r="I129"/>
+      <c r="K129"/>
     </row>
-    <row r="130" spans="1:9">
-      <c r="A130" s="29" t="s">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" s="28" t="s">
         <v>153</v>
       </c>
       <c r="B130" t="s">
@@ -49701,21 +49809,22 @@
       <c r="E130" t="s">
         <v>191</v>
       </c>
-      <c r="F130" s="27">
+      <c r="F130" s="26">
         <v>270</v>
       </c>
       <c r="G130" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="H130" s="31">
+      <c r="H130" s="30">
         <v>217</v>
       </c>
       <c r="I130" s="14" t="s">
         <v>25</v>
       </c>
+      <c r="K130"/>
     </row>
-    <row r="131" spans="1:9">
-      <c r="A131" s="29" t="s">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" s="28" t="s">
         <v>153</v>
       </c>
       <c r="B131" t="s">
@@ -49730,21 +49839,22 @@
       <c r="E131" t="s">
         <v>191</v>
       </c>
-      <c r="F131" s="27">
+      <c r="F131" s="26">
         <v>270</v>
       </c>
       <c r="G131" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="H131" s="31">
+      <c r="H131" s="30">
         <v>240</v>
       </c>
       <c r="I131" s="14" t="s">
         <v>25</v>
       </c>
+      <c r="K131"/>
     </row>
-    <row r="132" spans="1:9">
-      <c r="A132" s="29" t="s">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" s="28" t="s">
         <v>153</v>
       </c>
       <c r="B132" t="s">
@@ -49759,19 +49869,20 @@
       <c r="E132" t="s">
         <v>191</v>
       </c>
-      <c r="F132" s="27">
+      <c r="F132" s="26">
         <v>270</v>
       </c>
       <c r="G132" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="H132" s="27">
+      <c r="H132" s="26">
         <v>20.059999999999999</v>
       </c>
       <c r="I132"/>
+      <c r="K132"/>
     </row>
-    <row r="133" spans="1:9">
-      <c r="A133" s="29" t="s">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" s="28" t="s">
         <v>153</v>
       </c>
       <c r="B133" t="s">
@@ -49786,19 +49897,20 @@
       <c r="E133" t="s">
         <v>191</v>
       </c>
-      <c r="F133" s="27">
+      <c r="F133" s="26">
         <v>270</v>
       </c>
       <c r="G133" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="H133" s="34" t="s">
+      <c r="H133" s="33" t="s">
         <v>175</v>
       </c>
       <c r="I133"/>
+      <c r="K133"/>
     </row>
-    <row r="134" spans="1:9">
-      <c r="A134" s="29" t="s">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" s="28" t="s">
         <v>153</v>
       </c>
       <c r="B134" t="s">
@@ -49813,19 +49925,20 @@
       <c r="E134" t="s">
         <v>191</v>
       </c>
-      <c r="F134" s="27">
+      <c r="F134" s="26">
         <v>270</v>
       </c>
       <c r="G134" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="H134" s="27" t="s">
+      <c r="H134" s="26" t="s">
         <v>176</v>
       </c>
       <c r="I134"/>
+      <c r="K134"/>
     </row>
-    <row r="135" spans="1:9">
-      <c r="A135" s="29" t="s">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" s="28" t="s">
         <v>153</v>
       </c>
       <c r="B135" t="s">
@@ -49840,19 +49953,20 @@
       <c r="E135" t="s">
         <v>191</v>
       </c>
-      <c r="F135" s="27">
+      <c r="F135" s="26">
         <v>270</v>
       </c>
       <c r="G135" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="H135" s="27" t="s">
+      <c r="H135" s="26" t="s">
         <v>177</v>
       </c>
       <c r="I135"/>
+      <c r="K135"/>
     </row>
-    <row r="136" spans="1:9">
-      <c r="A136" s="29" t="s">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" s="28" t="s">
         <v>153</v>
       </c>
       <c r="B136" t="s">
@@ -49867,30 +49981,32 @@
       <c r="E136" t="s">
         <v>191</v>
       </c>
-      <c r="F136" s="27">
+      <c r="F136" s="26">
         <v>270</v>
       </c>
       <c r="G136" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="H136" s="34" t="s">
+      <c r="H136" s="33" t="s">
         <v>178</v>
       </c>
       <c r="I136"/>
+      <c r="K136"/>
     </row>
-    <row r="137" spans="1:9">
-      <c r="A137" s="30"/>
-      <c r="B137" s="30"/>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" s="29"/>
+      <c r="B137" s="29"/>
       <c r="C137"/>
       <c r="D137"/>
       <c r="E137"/>
-      <c r="F137" s="28"/>
+      <c r="F137" s="27"/>
       <c r="G137"/>
       <c r="H137"/>
       <c r="I137"/>
+      <c r="K137"/>
     </row>
-    <row r="138" spans="1:9">
-      <c r="A138" s="29" t="s">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" s="28" t="s">
         <v>154</v>
       </c>
       <c r="B138" t="s">
@@ -49911,13 +50027,14 @@
       <c r="G138" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="H138" s="27" t="s">
+      <c r="H138" s="26" t="s">
         <v>173</v>
       </c>
       <c r="I138"/>
+      <c r="K138"/>
     </row>
-    <row r="139" spans="1:9">
-      <c r="A139" s="29" t="s">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139" s="28" t="s">
         <v>154</v>
       </c>
       <c r="B139" t="s">
@@ -49938,13 +50055,14 @@
       <c r="G139" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="H139" s="27" t="s">
+      <c r="H139" s="26" t="s">
         <v>182</v>
       </c>
       <c r="I139"/>
+      <c r="K139"/>
     </row>
-    <row r="140" spans="1:9">
-      <c r="A140" s="29" t="s">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140" s="28" t="s">
         <v>154</v>
       </c>
       <c r="B140" t="s">
@@ -49965,23 +50083,25 @@
       <c r="G140" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="H140" s="27" t="s">
+      <c r="H140" s="26" t="s">
         <v>174</v>
       </c>
       <c r="I140"/>
+      <c r="K140"/>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141"/>
       <c r="B141"/>
       <c r="C141"/>
       <c r="D141"/>
       <c r="E141"/>
-      <c r="F141" s="28"/>
+      <c r="F141" s="27"/>
       <c r="G141"/>
-      <c r="H141" s="28"/>
+      <c r="H141" s="27"/>
       <c r="I141"/>
+      <c r="K141"/>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="14" t="s">
         <v>99</v>
       </c>
@@ -49997,18 +50117,19 @@
       <c r="E142" t="s">
         <v>188</v>
       </c>
-      <c r="F142" s="27">
+      <c r="F142" s="26">
         <v>18594</v>
       </c>
       <c r="G142" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="H142" s="27">
+      <c r="H142" s="26">
         <v>97000</v>
       </c>
       <c r="I142"/>
+      <c r="K142"/>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="14" t="s">
         <v>99</v>
       </c>
@@ -50024,18 +50145,19 @@
       <c r="E143" t="s">
         <v>188</v>
       </c>
-      <c r="F143" s="27">
+      <c r="F143" s="26">
         <v>18594</v>
       </c>
       <c r="G143" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="H143" s="27">
+      <c r="H143" s="26">
         <v>40.359383333333334</v>
       </c>
       <c r="I143"/>
+      <c r="K143"/>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="14" t="s">
         <v>99</v>
       </c>
@@ -50051,18 +50173,19 @@
       <c r="E144" t="s">
         <v>188</v>
       </c>
-      <c r="F144" s="27">
+      <c r="F144" s="26">
         <v>18594</v>
       </c>
       <c r="G144" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H144" s="27">
+      <c r="H144" s="26">
         <v>-70.885300000000001</v>
       </c>
       <c r="I144"/>
+      <c r="K144"/>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="14" t="s">
         <v>99</v>
       </c>
@@ -50078,18 +50201,19 @@
       <c r="E145" t="s">
         <v>188</v>
       </c>
-      <c r="F145" s="27">
+      <c r="F145" s="26">
         <v>18594</v>
       </c>
       <c r="G145" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="H145" s="31">
+      <c r="H145" s="30">
         <v>0.45</v>
       </c>
       <c r="I145"/>
+      <c r="K145"/>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="14" t="s">
         <v>99</v>
       </c>
@@ -50105,18 +50229,19 @@
       <c r="E146" t="s">
         <v>188</v>
       </c>
-      <c r="F146" s="27">
+      <c r="F146" s="26">
         <v>18594</v>
       </c>
       <c r="G146" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="H146" s="31">
+      <c r="H146" s="30">
         <v>0.45</v>
       </c>
       <c r="I146"/>
+      <c r="K146"/>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="14" t="s">
         <v>99</v>
       </c>
@@ -50132,18 +50257,19 @@
       <c r="E147" t="s">
         <v>188</v>
       </c>
-      <c r="F147" s="27">
+      <c r="F147" s="26">
         <v>18594</v>
       </c>
       <c r="G147" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="H147" s="31">
+      <c r="H147" s="30">
         <v>0.45</v>
       </c>
       <c r="I147"/>
+      <c r="K147"/>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="14" t="s">
         <v>99</v>
       </c>
@@ -50159,29 +50285,31 @@
       <c r="E148" t="s">
         <v>188</v>
       </c>
-      <c r="F148" s="27">
+      <c r="F148" s="26">
         <v>18594</v>
       </c>
       <c r="G148" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="H148" s="31">
+      <c r="H148" s="30">
         <v>0.45</v>
       </c>
       <c r="I148"/>
+      <c r="K148"/>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149"/>
       <c r="B149"/>
       <c r="C149"/>
       <c r="D149"/>
       <c r="E149"/>
-      <c r="F149" s="28"/>
+      <c r="F149" s="27"/>
       <c r="G149"/>
       <c r="H149"/>
       <c r="I149"/>
+      <c r="K149"/>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="14" t="s">
         <v>105</v>
       </c>
@@ -50203,12 +50331,13 @@
       <c r="G150" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="H150" s="27">
+      <c r="H150" s="26">
         <v>2064.6590000000001</v>
       </c>
       <c r="I150"/>
+      <c r="K150"/>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="14" t="s">
         <v>105</v>
       </c>
@@ -50230,12 +50359,13 @@
       <c r="G151" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="H151" s="27">
+      <c r="H151" s="26">
         <v>14.16356</v>
       </c>
       <c r="I151"/>
+      <c r="K151"/>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="14" t="s">
         <v>105</v>
       </c>
@@ -50257,12 +50387,13 @@
       <c r="G152" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="H152" s="27">
+      <c r="H152" s="26">
         <v>-3193.857</v>
       </c>
       <c r="I152"/>
+      <c r="K152"/>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="14" t="s">
         <v>105</v>
       </c>
@@ -50284,12 +50415,13 @@
       <c r="G153" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="H153" s="27">
+      <c r="H153" s="26">
         <v>1.1655E-2</v>
       </c>
       <c r="I153"/>
+      <c r="K153"/>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="14" t="s">
         <v>105</v>
       </c>
@@ -50311,12 +50443,13 @@
       <c r="G154" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="H154" s="27">
+      <c r="H154" s="26">
         <v>0</v>
       </c>
       <c r="I154"/>
+      <c r="K154"/>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="14" t="s">
         <v>105</v>
       </c>
@@ -50338,14 +50471,15 @@
       <c r="G155" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="H155" s="31">
+      <c r="H155" s="30">
         <v>0</v>
       </c>
       <c r="I155" s="14" t="s">
         <v>25</v>
       </c>
+      <c r="K155"/>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="14" t="s">
         <v>105</v>
       </c>
@@ -50367,12 +50501,13 @@
       <c r="G156" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="H156" s="27">
+      <c r="H156" s="26">
         <v>-0.2472</v>
       </c>
       <c r="I156"/>
+      <c r="K156"/>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="14" t="s">
         <v>105</v>
       </c>
@@ -50394,14 +50529,15 @@
       <c r="G157" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="H157" s="31">
+      <c r="H157" s="30">
         <v>1</v>
       </c>
       <c r="I157" s="14" t="s">
         <v>25</v>
       </c>
+      <c r="K157"/>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="14" t="s">
         <v>105</v>
       </c>
@@ -50423,12 +50559,13 @@
       <c r="G158" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="H158" s="27">
+      <c r="H158" s="26">
         <v>27.61045</v>
       </c>
       <c r="I158"/>
+      <c r="K158"/>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="14" t="s">
         <v>105</v>
       </c>
@@ -50450,12 +50587,13 @@
       <c r="G159" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="H159" s="27">
+      <c r="H159" s="26">
         <v>0.23627100000000001</v>
       </c>
       <c r="I159"/>
+      <c r="K159"/>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="14" t="s">
         <v>105</v>
       </c>
@@ -50477,12 +50615,13 @@
       <c r="G160" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="H160" s="27">
+      <c r="H160" s="26">
         <v>16.693860000000001</v>
       </c>
       <c r="I160"/>
+      <c r="K160"/>
     </row>
-    <row r="161" spans="1:10">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="14" t="s">
         <v>105</v>
       </c>
@@ -50504,12 +50643,13 @@
       <c r="G161" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="H161" s="27">
+      <c r="H161" s="26">
         <v>32.303669999999997</v>
       </c>
       <c r="I161"/>
+      <c r="K161"/>
     </row>
-    <row r="162" spans="1:10">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="14" t="s">
         <v>105</v>
       </c>
@@ -50531,12 +50671,13 @@
       <c r="G162" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="H162" s="27">
+      <c r="H162" s="26">
         <v>5.8436409999999999</v>
       </c>
       <c r="I162"/>
+      <c r="K162"/>
     </row>
-    <row r="163" spans="1:10">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="14" t="s">
         <v>105</v>
       </c>
@@ -50558,12 +50699,13 @@
       <c r="G163" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="H163" s="27">
+      <c r="H163" s="26">
         <v>-3952.915</v>
       </c>
       <c r="I163"/>
+      <c r="K163"/>
     </row>
-    <row r="164" spans="1:10">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="14" t="s">
         <v>105</v>
       </c>
@@ -50585,13 +50727,14 @@
       <c r="G164" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="H164" s="27">
+      <c r="H164" s="26">
         <f>10377.22</f>
         <v>10377.219999999999</v>
       </c>
       <c r="I164"/>
+      <c r="K164"/>
     </row>
-    <row r="165" spans="1:10">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="14" t="s">
         <v>105</v>
       </c>
@@ -50613,12 +50756,13 @@
       <c r="G165" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="H165" s="27">
+      <c r="H165" s="26">
         <v>0</v>
       </c>
       <c r="I165"/>
+      <c r="K165"/>
     </row>
-    <row r="166" spans="1:10">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="14" t="s">
         <v>105</v>
       </c>
@@ -50640,12 +50784,13 @@
       <c r="G166" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="H166" s="31">
+      <c r="H166" s="30">
         <v>2796.2</v>
       </c>
       <c r="I166"/>
+      <c r="K166"/>
     </row>
-    <row r="167" spans="1:10">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="14" t="s">
         <v>105</v>
       </c>
@@ -50667,23 +50812,25 @@
       <c r="G167" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="H167" s="31">
+      <c r="H167" s="30">
         <v>41943</v>
       </c>
       <c r="I167"/>
+      <c r="K167"/>
     </row>
-    <row r="168" spans="1:10">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168"/>
       <c r="B168"/>
       <c r="C168"/>
       <c r="D168"/>
       <c r="E168"/>
-      <c r="F168" s="28"/>
+      <c r="F168" s="27"/>
       <c r="G168"/>
       <c r="H168"/>
       <c r="I168"/>
+      <c r="K168"/>
     </row>
-    <row r="169" spans="1:10">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="14" t="s">
         <v>124</v>
       </c>
@@ -50699,18 +50846,19 @@
       <c r="E169" t="s">
         <v>185</v>
       </c>
-      <c r="F169" s="27" t="s">
+      <c r="F169" s="26" t="s">
         <v>155</v>
       </c>
       <c r="G169" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="H169" s="27">
+      <c r="H169" s="26">
         <v>-8.3999999999999995E-3</v>
       </c>
       <c r="I169"/>
+      <c r="K169"/>
     </row>
-    <row r="170" spans="1:10">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="14" t="s">
         <v>124</v>
       </c>
@@ -50726,18 +50874,19 @@
       <c r="E170" t="s">
         <v>185</v>
       </c>
-      <c r="F170" s="27" t="s">
+      <c r="F170" s="26" t="s">
         <v>155</v>
       </c>
       <c r="G170" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="H170" s="27">
+      <c r="H170" s="26">
         <v>0.91239999999999999</v>
       </c>
       <c r="I170"/>
+      <c r="K170"/>
     </row>
-    <row r="171" spans="1:10">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="14" t="s">
         <v>124</v>
       </c>
@@ -50753,18 +50902,19 @@
       <c r="E171" t="s">
         <v>185</v>
       </c>
-      <c r="F171" s="27" t="s">
+      <c r="F171" s="26" t="s">
         <v>155</v>
       </c>
       <c r="G171" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="H171" s="27">
+      <c r="H171" s="26">
         <v>-1.958</v>
       </c>
       <c r="I171"/>
+      <c r="K171"/>
     </row>
-    <row r="172" spans="1:10">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="14" t="s">
         <v>124</v>
       </c>
@@ -50780,18 +50930,19 @@
       <c r="E172" t="s">
         <v>185</v>
       </c>
-      <c r="F172" s="27" t="s">
+      <c r="F172" s="26" t="s">
         <v>155</v>
       </c>
       <c r="G172" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="H172" s="27">
+      <c r="H172" s="26">
         <v>14.77</v>
       </c>
       <c r="I172"/>
+      <c r="K172"/>
     </row>
-    <row r="173" spans="1:10">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="14" t="s">
         <v>124</v>
       </c>
@@ -50807,20 +50958,21 @@
       <c r="E173" t="s">
         <v>185</v>
       </c>
-      <c r="F173" s="27" t="s">
+      <c r="F173" s="26" t="s">
         <v>155</v>
       </c>
       <c r="G173" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="H173" s="31">
+      <c r="H173" s="30">
         <v>19706</v>
       </c>
       <c r="I173" t="s">
         <v>156</v>
       </c>
+      <c r="K173"/>
     </row>
-    <row r="174" spans="1:10">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="14" t="s">
         <v>124</v>
       </c>
@@ -50836,21 +50988,22 @@
       <c r="E174" t="s">
         <v>185</v>
       </c>
-      <c r="F174" s="27" t="s">
+      <c r="F174" s="26" t="s">
         <v>155</v>
       </c>
       <c r="G174" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="H174" s="31">
+      <c r="H174" s="30">
         <v>34</v>
       </c>
       <c r="I174" t="s">
         <v>156</v>
       </c>
       <c r="J174"/>
+      <c r="K174"/>
     </row>
-    <row r="175" spans="1:10">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="14" t="s">
         <v>124</v>
       </c>
@@ -50866,21 +51019,22 @@
       <c r="E175" t="s">
         <v>185</v>
       </c>
-      <c r="F175" s="27" t="s">
+      <c r="F175" s="26" t="s">
         <v>155</v>
       </c>
       <c r="G175" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="H175" s="31">
+      <c r="H175" s="30">
         <v>3073</v>
       </c>
       <c r="I175" t="s">
         <v>156</v>
       </c>
       <c r="J175"/>
+      <c r="K175"/>
     </row>
-    <row r="176" spans="1:10">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="14" t="s">
         <v>124</v>
       </c>
@@ -50896,45 +51050,43 @@
       <c r="E176" t="s">
         <v>185</v>
       </c>
-      <c r="F176" s="27" t="s">
+      <c r="F176" s="26" t="s">
         <v>155</v>
       </c>
       <c r="G176" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="H176" s="31">
+      <c r="H176" s="30">
         <v>44327</v>
       </c>
       <c r="I176" t="s">
         <v>156</v>
       </c>
       <c r="J176"/>
+      <c r="K176"/>
     </row>
-    <row r="177" spans="1:1027">
+    <row r="177" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A177"/>
       <c r="B177"/>
       <c r="C177"/>
       <c r="D177"/>
       <c r="E177"/>
-      <c r="F177" s="28"/>
+      <c r="F177" s="27"/>
       <c r="I177"/>
       <c r="J177"/>
+      <c r="K177"/>
     </row>
-    <row r="178" spans="1:1027" s="23" customFormat="1">
+    <row r="178" spans="1:1027" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G178" s="17"/>
       <c r="H178" s="17"/>
-      <c r="I178" s="29" t="s">
+      <c r="I178" s="28" t="s">
         <v>144</v>
       </c>
       <c r="J178" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="K178" s="17">
-        <v>2</v>
-      </c>
-      <c r="L178" s="29">
-        <v>55080</v>
-      </c>
+      <c r="K178"/>
+      <c r="L178" s="28"/>
       <c r="M178" s="17"/>
       <c r="N178" s="17"/>
       <c r="O178" s="17"/>
@@ -51951,7 +52103,7 @@
       <c r="AML178" s="17"/>
       <c r="AMM178" s="17"/>
     </row>
-    <row r="179" spans="1:1027">
+    <row r="179" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A179"/>
       <c r="B179"/>
       <c r="C179"/>
@@ -51960,8 +52112,9 @@
       <c r="F179"/>
       <c r="I179"/>
       <c r="J179"/>
+      <c r="K179"/>
     </row>
-    <row r="180" spans="1:1027">
+    <row r="180" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A180" s="14" t="s">
         <v>131</v>
       </c>
@@ -51974,18 +52127,19 @@
       <c r="D180" s="14">
         <v>2</v>
       </c>
-      <c r="E180" s="40" t="s">
+      <c r="E180" s="39" t="s">
         <v>225</v>
       </c>
       <c r="F180" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="I180" s="29" t="s">
+      <c r="I180" s="28" t="s">
         <v>132</v>
       </c>
       <c r="J180"/>
+      <c r="K180"/>
     </row>
-    <row r="181" spans="1:1027">
+    <row r="181" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A181" s="14" t="s">
         <v>133</v>
       </c>
@@ -51998,18 +52152,19 @@
       <c r="D181" s="14">
         <v>2</v>
       </c>
-      <c r="E181" s="40" t="s">
+      <c r="E181" s="39" t="s">
         <v>226</v>
       </c>
       <c r="F181" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="I181" s="29" t="s">
+      <c r="I181" s="28" t="s">
         <v>132</v>
       </c>
       <c r="J181"/>
+      <c r="K181"/>
     </row>
-    <row r="182" spans="1:1027">
+    <row r="182" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A182" s="14" t="s">
         <v>134</v>
       </c>
@@ -52022,28 +52177,30 @@
       <c r="D182" s="14">
         <v>2</v>
       </c>
-      <c r="E182" s="40" t="s">
+      <c r="E182" s="39" t="s">
         <v>227</v>
       </c>
       <c r="F182" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="I182" s="29" t="s">
+      <c r="I182" s="28" t="s">
         <v>132</v>
       </c>
       <c r="J182"/>
+      <c r="K182"/>
     </row>
-    <row r="183" spans="1:1027">
+    <row r="183" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A183"/>
       <c r="B183"/>
       <c r="C183"/>
       <c r="D183"/>
       <c r="E183"/>
       <c r="F183" s="18"/>
-      <c r="I183" s="29"/>
+      <c r="I183" s="28"/>
       <c r="J183"/>
+      <c r="K183"/>
     </row>
-    <row r="184" spans="1:1027">
+    <row r="184" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A184" s="14" t="s">
         <v>135</v>
       </c>
@@ -52056,18 +52213,19 @@
       <c r="D184" s="14">
         <v>2</v>
       </c>
-      <c r="E184" s="40" t="s">
+      <c r="E184" s="39" t="s">
         <v>228</v>
       </c>
       <c r="F184" s="18" t="s">
         <v>215</v>
       </c>
-      <c r="I184" s="29" t="s">
+      <c r="I184" s="28" t="s">
         <v>136</v>
       </c>
       <c r="J184"/>
+      <c r="K184"/>
     </row>
-    <row r="185" spans="1:1027">
+    <row r="185" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A185" s="14" t="s">
         <v>137</v>
       </c>
@@ -52080,18 +52238,19 @@
       <c r="D185" s="14">
         <v>2</v>
       </c>
-      <c r="E185" s="40" t="s">
+      <c r="E185" s="39" t="s">
         <v>229</v>
       </c>
       <c r="F185" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="I185" s="29" t="s">
+      <c r="I185" s="28" t="s">
         <v>136</v>
       </c>
       <c r="J185"/>
+      <c r="K185"/>
     </row>
-    <row r="186" spans="1:1027">
+    <row r="186" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A186" s="14" t="s">
         <v>138</v>
       </c>
@@ -52104,18 +52263,19 @@
       <c r="D186" s="14">
         <v>2</v>
       </c>
-      <c r="E186" s="40" t="s">
+      <c r="E186" s="39" t="s">
         <v>230</v>
       </c>
       <c r="F186" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="I186" s="29" t="s">
+      <c r="I186" s="28" t="s">
         <v>136</v>
       </c>
       <c r="J186"/>
+      <c r="K186"/>
     </row>
-    <row r="187" spans="1:1027">
+    <row r="187" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A187" s="14" t="s">
         <v>139</v>
       </c>
@@ -52128,18 +52288,19 @@
       <c r="D187" s="14">
         <v>2</v>
       </c>
-      <c r="E187" s="40" t="s">
+      <c r="E187" s="39" t="s">
         <v>231</v>
       </c>
       <c r="F187" s="18" t="s">
         <v>218</v>
       </c>
-      <c r="I187" s="29" t="s">
+      <c r="I187" s="28" t="s">
         <v>136</v>
       </c>
       <c r="J187"/>
+      <c r="K187"/>
     </row>
-    <row r="188" spans="1:1027">
+    <row r="188" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A188" s="14" t="s">
         <v>140</v>
       </c>
@@ -52152,18 +52313,19 @@
       <c r="D188" s="14">
         <v>2</v>
       </c>
-      <c r="E188" s="40" t="s">
+      <c r="E188" s="39" t="s">
         <v>232</v>
       </c>
       <c r="F188" s="18" t="s">
         <v>219</v>
       </c>
-      <c r="I188" s="29" t="s">
+      <c r="I188" s="28" t="s">
         <v>136</v>
       </c>
       <c r="J188"/>
+      <c r="K188"/>
     </row>
-    <row r="189" spans="1:1027">
+    <row r="189" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="A189" s="14" t="s">
         <v>141</v>
       </c>
@@ -52176,30 +52338,31 @@
       <c r="D189" s="14">
         <v>2</v>
       </c>
-      <c r="E189" s="40" t="s">
+      <c r="E189" s="39" t="s">
         <v>233</v>
       </c>
       <c r="F189" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="I189" s="29" t="s">
+      <c r="I189" s="28" t="s">
         <v>136</v>
       </c>
       <c r="J189"/>
+      <c r="K189"/>
     </row>
-    <row r="190" spans="1:1027">
+    <row r="190" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="J190"/>
     </row>
-    <row r="191" spans="1:1027">
+    <row r="191" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="J191"/>
     </row>
-    <row r="192" spans="1:1027">
+    <row r="192" spans="1:1027" x14ac:dyDescent="0.25">
       <c r="J192"/>
     </row>
-    <row r="193" spans="10:10">
+    <row r="193" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J193"/>
     </row>
-    <row r="194" spans="10:10">
+    <row r="194" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J194"/>
     </row>
   </sheetData>
@@ -52221,9 +52384,9 @@
       <selection sqref="A1:XFD81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>-0.23630799999999999</v>
       </c>
@@ -52336,7 +52499,7 @@
         <v>0.102089</v>
       </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-0.219112</v>
       </c>
@@ -52449,7 +52612,7 @@
         <v>9.0979000000000004E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-0.192574</v>
       </c>
@@ -52562,7 +52725,7 @@
         <v>7.4718999999999994E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-0.162712</v>
       </c>
@@ -52675,7 +52838,7 @@
         <v>5.969E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-0.13741800000000001</v>
       </c>
@@ -52788,7 +52951,7 @@
         <v>4.7300000000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-0.115784</v>
       </c>
@@ -52901,7 +53064,7 @@
         <v>3.5348999999999998E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-0.10087599999999999</v>
       </c>
@@ -53014,7 +53177,7 @@
         <v>3.0356999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-8.9899000000000007E-2</v>
       </c>
@@ -53127,7 +53290,7 @@
         <v>2.6417E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-8.2663E-2</v>
       </c>
@@ -53240,7 +53403,7 @@
         <v>2.2605E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-7.5933E-2</v>
       </c>
@@ -53353,7 +53516,7 @@
         <v>1.8262E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-7.2041999999999995E-2</v>
       </c>
@@ -53466,7 +53629,7 @@
         <v>1.7717E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-6.7464999999999997E-2</v>
       </c>
@@ -53579,7 +53742,7 @@
         <v>1.6542999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-6.4418000000000003E-2</v>
       </c>
@@ -53692,7 +53855,7 @@
         <v>1.4557E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:37">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-6.0699999999999997E-2</v>
       </c>
@@ -53805,7 +53968,7 @@
         <v>1.4468E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:37">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-5.6932999999999997E-2</v>
       </c>
@@ -53918,7 +54081,7 @@
         <v>1.3155E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:37">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-5.5059999999999998E-2</v>
       </c>
@@ -54031,7 +54194,7 @@
         <v>1.2047E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:37">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-5.2786E-2</v>
       </c>
@@ -54144,7 +54307,7 @@
         <v>1.1903E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:37">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-5.0230999999999998E-2</v>
       </c>
@@ -54257,7 +54420,7 @@
         <v>1.1834000000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:37">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-4.8555000000000001E-2</v>
       </c>
@@ -54370,7 +54533,7 @@
         <v>9.7350000000000006E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:37">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-4.6621000000000003E-2</v>
       </c>
@@ -54483,7 +54646,7 @@
         <v>1.0331E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:37">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-4.4781000000000001E-2</v>
       </c>
@@ -54596,7 +54759,7 @@
         <v>9.5359999999999993E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:37">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-4.2777000000000003E-2</v>
       </c>
@@ -54709,7 +54872,7 @@
         <v>8.9219999999999994E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:37">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-4.1693000000000001E-2</v>
       </c>
@@ -54822,7 +54985,7 @@
         <v>8.6110000000000006E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:37">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-4.0076000000000001E-2</v>
       </c>
@@ -54935,7 +55098,7 @@
         <v>8.0199999999999994E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:37">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-3.8706999999999998E-2</v>
       </c>
@@ -55048,7 +55211,7 @@
         <v>7.5820000000000002E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:37">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-3.7692999999999997E-2</v>
       </c>
@@ -55161,7 +55324,7 @@
         <v>7.3439999999999998E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:37">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-3.6488E-2</v>
       </c>
@@ -55274,7 +55437,7 @@
         <v>6.9959999999999996E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:37">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-3.5685000000000001E-2</v>
       </c>
@@ -55387,7 +55550,7 @@
         <v>6.9870000000000002E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:37">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-3.4793999999999999E-2</v>
       </c>
@@ -55500,7 +55663,7 @@
         <v>6.8120000000000003E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:37">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-3.3947999999999999E-2</v>
       </c>
@@ -55613,7 +55776,7 @@
         <v>6.3699999999999998E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:37">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-3.3202000000000002E-2</v>
       </c>
@@ -55726,7 +55889,7 @@
         <v>5.9709999999999997E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:37">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-3.2448999999999999E-2</v>
       </c>
@@ -55839,7 +56002,7 @@
         <v>5.7369999999999999E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:37">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>-3.1661000000000002E-2</v>
       </c>
@@ -55952,7 +56115,7 @@
         <v>5.8729999999999997E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:37">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>-3.1063E-2</v>
       </c>
@@ -56065,7 +56228,7 @@
         <v>5.5519999999999996E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:37">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-3.0332000000000001E-2</v>
       </c>
@@ -56178,7 +56341,7 @@
         <v>5.4149999999999997E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:37">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>-2.9614999999999999E-2</v>
       </c>
@@ -56291,7 +56454,7 @@
         <v>5.1799999999999997E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:37">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>-2.8750000000000001E-2</v>
       </c>
@@ -56404,7 +56567,7 @@
         <v>4.8329999999999996E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:37">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>-2.8122000000000001E-2</v>
       </c>
@@ -56517,7 +56680,7 @@
         <v>4.4180000000000001E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:37">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>-2.7635E-2</v>
       </c>
@@ -56630,7 +56793,7 @@
         <v>4.352E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:37">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>-2.7272000000000001E-2</v>
       </c>
@@ -56743,7 +56906,7 @@
         <v>4.0549999999999996E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:37">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>-2.6905999999999999E-2</v>
       </c>
@@ -56856,7 +57019,7 @@
         <v>4.0980000000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:37">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>-2.6765000000000001E-2</v>
       </c>
@@ -56969,7 +57132,7 @@
         <v>4.2370000000000003E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:37">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>-2.6817000000000001E-2</v>
       </c>
@@ -57082,7 +57245,7 @@
         <v>4.0179999999999999E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:37">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>-2.6887000000000001E-2</v>
       </c>
@@ -57195,7 +57358,7 @@
         <v>4.3420000000000004E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:37">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>-2.6966E-2</v>
       </c>
@@ -57308,7 +57471,7 @@
         <v>4.5149999999999999E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:37">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>-2.7814999999999999E-2</v>
       </c>
@@ -57421,7 +57584,7 @@
         <v>5.5440000000000003E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:37">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>-2.7373999999999999E-2</v>
       </c>
@@ -57534,7 +57697,7 @@
         <v>5.3959999999999998E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:37">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>-2.7095000000000001E-2</v>
       </c>
@@ -57647,7 +57810,7 @@
         <v>5.4349999999999997E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:37">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>-2.6783999999999999E-2</v>
       </c>
@@ -57760,7 +57923,7 @@
         <v>5.2300000000000003E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:37">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>-2.6502999999999999E-2</v>
       </c>
@@ -57873,7 +58036,7 @@
         <v>5.097E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:37">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>-2.6282E-2</v>
       </c>
@@ -57986,7 +58149,7 @@
         <v>5.0029999999999996E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:37">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>-2.6155999999999999E-2</v>
       </c>
@@ -58099,7 +58262,7 @@
         <v>4.8890000000000001E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:37">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>-2.5994E-2</v>
       </c>
@@ -58212,7 +58375,7 @@
         <v>4.8500000000000001E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:37">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>-2.5885999999999999E-2</v>
       </c>
@@ -58325,7 +58488,7 @@
         <v>4.7889999999999999E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:37">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>-2.5662000000000001E-2</v>
       </c>
@@ -58438,7 +58601,7 @@
         <v>4.7590000000000002E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:37">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>-2.5572999999999999E-2</v>
       </c>
@@ -58551,7 +58714,7 @@
         <v>4.7359999999999998E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:37">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>-2.5590999999999999E-2</v>
       </c>
@@ -58664,7 +58827,7 @@
         <v>4.5519999999999996E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:37">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>-2.5419000000000001E-2</v>
       </c>
@@ -58777,7 +58940,7 @@
         <v>4.4910000000000002E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:37">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>-2.5249000000000001E-2</v>
       </c>
@@ -58890,7 +59053,7 @@
         <v>4.6649999999999999E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:37">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>-2.5117E-2</v>
       </c>
@@ -59003,7 +59166,7 @@
         <v>4.6480000000000002E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:37">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>-2.5079000000000001E-2</v>
       </c>
@@ -59116,7 +59279,7 @@
         <v>4.5989999999999998E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:37">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>-2.5096E-2</v>
       </c>
@@ -59229,7 +59392,7 @@
         <v>4.4120000000000001E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:37">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>-2.4931999999999999E-2</v>
       </c>
@@ -59342,7 +59505,7 @@
         <v>4.4079999999999996E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:37">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>-2.4843E-2</v>
       </c>
@@ -59455,7 +59618,7 @@
         <v>4.3969999999999999E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:37">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>-2.4686E-2</v>
       </c>
@@ -59568,7 +59731,7 @@
         <v>4.0870000000000004E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:37">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>-2.4313999999999999E-2</v>
       </c>
@@ -59681,7 +59844,7 @@
         <v>3.8549999999999999E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:37">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>-2.3865999999999998E-2</v>
       </c>
@@ -59794,7 +59957,7 @@
         <v>3.565E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:37">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>-2.3199999999999998E-2</v>
       </c>
@@ -59907,7 +60070,7 @@
         <v>3.4580000000000001E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:37">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>-2.2863999999999999E-2</v>
       </c>
@@ -60020,7 +60183,7 @@
         <v>3.2950000000000002E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:37">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>-2.2699E-2</v>
       </c>
@@ -60133,7 +60296,7 @@
         <v>3.3089999999999999E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:37">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>-2.2542E-2</v>
       </c>
@@ -60246,7 +60409,7 @@
         <v>3.0799999999999998E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:37">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>-2.2339999999999999E-2</v>
       </c>
@@ -60359,7 +60522,7 @@
         <v>2.8649999999999999E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:37">
+    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>-2.2103999999999999E-2</v>
       </c>
@@ -60472,7 +60635,7 @@
         <v>2.8500000000000001E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:37">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>-2.2164E-2</v>
       </c>
@@ -60585,7 +60748,7 @@
         <v>2.9369999999999999E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:37">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>-2.2291999999999999E-2</v>
       </c>
@@ -60698,7 +60861,7 @@
         <v>2.8240000000000001E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:37">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>-2.2556E-2</v>
       </c>
@@ -60811,7 +60974,7 @@
         <v>3.0760000000000002E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:37">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>-2.2882E-2</v>
       </c>
@@ -60924,7 +61087,7 @@
         <v>3.0920000000000001E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:37">
+    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>-2.3435999999999998E-2</v>
       </c>
@@ -61037,7 +61200,7 @@
         <v>3.496E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:37">
+    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>-2.3737000000000001E-2</v>
       </c>
@@ -61150,7 +61313,7 @@
         <v>3.3709999999999999E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:37">
+    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>-2.3903000000000001E-2</v>
       </c>
@@ -61263,7 +61426,7 @@
         <v>3.372E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:37">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>-2.4138E-2</v>
       </c>
@@ -61395,9 +61558,9 @@
       <selection sqref="A1:XFD81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>-4.5019999999999998E-2</v>
       </c>
@@ -61510,7 +61673,7 @@
         <v>2.7320000000000001E-3</v>
       </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-4.9313999999999997E-2</v>
       </c>
@@ -61623,7 +61786,7 @@
         <v>3.0019999999999999E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-5.3048999999999999E-2</v>
       </c>
@@ -61736,7 +61899,7 @@
         <v>5.1050000000000002E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-4.9300999999999998E-2</v>
       </c>
@@ -61849,7 +62012,7 @@
         <v>6.0299999999999998E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-5.1970000000000002E-2</v>
       </c>
@@ -61962,7 +62125,7 @@
         <v>6.7450000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-5.2373000000000003E-2</v>
       </c>
@@ -62075,7 +62238,7 @@
         <v>7.8180000000000003E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-5.1167999999999998E-2</v>
       </c>
@@ -62188,7 +62351,7 @@
         <v>7.8989999999999998E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-5.0535999999999998E-2</v>
       </c>
@@ -62301,7 +62464,7 @@
         <v>7.9380000000000006E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-5.0341999999999998E-2</v>
       </c>
@@ -62414,7 +62577,7 @@
         <v>6.6880000000000004E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-4.9499000000000001E-2</v>
       </c>
@@ -62527,7 +62690,7 @@
         <v>7.3499999999999998E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-4.8509999999999998E-2</v>
       </c>
@@ -62640,7 +62803,7 @@
         <v>6.1539999999999997E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-4.6917E-2</v>
       </c>
@@ -62753,7 +62916,7 @@
         <v>6.352E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-4.6531999999999997E-2</v>
       </c>
@@ -62866,7 +63029,7 @@
         <v>6.4970000000000002E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:37">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-4.5048999999999999E-2</v>
       </c>
@@ -62979,7 +63142,7 @@
         <v>5.2249999999999996E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:37">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-4.4132999999999999E-2</v>
       </c>
@@ -63092,7 +63255,7 @@
         <v>5.653E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:37">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-4.3455000000000001E-2</v>
       </c>
@@ -63205,7 +63368,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:37">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-4.1370999999999998E-2</v>
       </c>
@@ -63318,7 +63481,7 @@
         <v>4.9880000000000002E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:37">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-4.0131E-2</v>
       </c>
@@ -63431,7 +63594,7 @@
         <v>5.202E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:37">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-3.9669000000000003E-2</v>
       </c>
@@ -63544,7 +63707,7 @@
         <v>4.3439999999999998E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:37">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-3.7501E-2</v>
       </c>
@@ -63657,7 +63820,7 @@
         <v>4.3810000000000003E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:37">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-3.7622000000000003E-2</v>
       </c>
@@ -63770,7 +63933,7 @@
         <v>4.7200000000000002E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:37">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-3.6163000000000001E-2</v>
       </c>
@@ -63883,7 +64046,7 @@
         <v>3.813E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:37">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-3.4867000000000002E-2</v>
       </c>
@@ -63996,7 +64159,7 @@
         <v>4.548E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:37">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-3.4709999999999998E-2</v>
       </c>
@@ -64109,7 +64272,7 @@
         <v>3.6449999999999998E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:37">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-3.3486000000000002E-2</v>
       </c>
@@ -64222,7 +64385,7 @@
         <v>3.4849999999999998E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:37">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-3.2210000000000003E-2</v>
       </c>
@@ -64335,7 +64498,7 @@
         <v>3.5890000000000002E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:37">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-3.1989999999999998E-2</v>
       </c>
@@ -64448,7 +64611,7 @@
         <v>3.235E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:37">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-3.0970999999999999E-2</v>
       </c>
@@ -64561,7 +64724,7 @@
         <v>3.228E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:37">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-3.0700999999999999E-2</v>
       </c>
@@ -64674,7 +64837,7 @@
         <v>3.1830000000000001E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:37">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-2.9828E-2</v>
       </c>
@@ -64787,7 +64950,7 @@
         <v>2.6250000000000002E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:37">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-2.8743999999999999E-2</v>
       </c>
@@ -64900,7 +65063,7 @@
         <v>2.7829999999999999E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:37">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-2.8386999999999999E-2</v>
       </c>
@@ -65013,7 +65176,7 @@
         <v>2.4889999999999999E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:37">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>-2.7272999999999999E-2</v>
       </c>
@@ -65126,7 +65289,7 @@
         <v>1.864E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:37">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>-2.6145999999999999E-2</v>
       </c>
@@ -65239,7 +65402,7 @@
         <v>2.4090000000000001E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:37">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-2.5887E-2</v>
       </c>
@@ -65352,7 +65515,7 @@
         <v>1.7340000000000001E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:37">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>-2.4691000000000001E-2</v>
       </c>
@@ -65465,7 +65628,7 @@
         <v>1.5410000000000001E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:37">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>-2.4195999999999999E-2</v>
       </c>
@@ -65578,7 +65741,7 @@
         <v>1.6299999999999999E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:37">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>-2.3730000000000001E-2</v>
       </c>
@@ -65691,7 +65854,7 @@
         <v>1.101E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:37">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>-2.2949000000000001E-2</v>
       </c>
@@ -65804,7 +65967,7 @@
         <v>1.2110000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:37">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>-2.2709E-2</v>
       </c>
@@ -65917,7 +66080,7 @@
         <v>1.2620000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:37">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>-2.2540000000000001E-2</v>
       </c>
@@ -66030,7 +66193,7 @@
         <v>9.1399999999999999E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:37">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>-2.2297000000000001E-2</v>
       </c>
@@ -66143,7 +66306,7 @@
         <v>1.2310000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:37">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>-2.2387000000000001E-2</v>
       </c>
@@ -66256,7 +66419,7 @@
         <v>1.1559999999999999E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:37">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>-2.2540000000000001E-2</v>
       </c>
@@ -66369,7 +66532,7 @@
         <v>1.1820000000000001E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:37">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>-2.2654000000000001E-2</v>
       </c>
@@ -66482,7 +66645,7 @@
         <v>1.477E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:37">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>-2.4153000000000001E-2</v>
       </c>
@@ -66595,7 +66758,7 @@
         <v>2.016E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:37">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>-2.3911000000000002E-2</v>
       </c>
@@ -66708,7 +66871,7 @@
         <v>2.0110000000000002E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:37">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>-2.3597E-2</v>
       </c>
@@ -66821,7 +66984,7 @@
         <v>1.756E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:37">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>-2.3290999999999999E-2</v>
       </c>
@@ -66934,7 +67097,7 @@
         <v>1.835E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:37">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>-2.2932999999999999E-2</v>
       </c>
@@ -67047,7 +67210,7 @@
         <v>1.753E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:37">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>-2.2386E-2</v>
       </c>
@@ -67160,7 +67323,7 @@
         <v>1.6869999999999999E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:37">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>-2.2197999999999999E-2</v>
       </c>
@@ -67273,7 +67436,7 @@
         <v>1.686E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:37">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>-2.1811000000000001E-2</v>
       </c>
@@ -67386,7 +67549,7 @@
         <v>1.688E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:37">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>-2.1628000000000001E-2</v>
       </c>
@@ -67499,7 +67662,7 @@
         <v>1.518E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:37">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>-2.1832000000000001E-2</v>
       </c>
@@ -67612,7 +67775,7 @@
         <v>1.07E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:37">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>-2.1493000000000002E-2</v>
       </c>
@@ -67725,7 +67888,7 @@
         <v>1.2520000000000001E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:37">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>-2.1021999999999999E-2</v>
       </c>
@@ -67838,7 +68001,7 @@
         <v>1.5009999999999999E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:37">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>-2.1073000000000001E-2</v>
       </c>
@@ -67951,7 +68114,7 @@
         <v>1.405E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:37">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>-2.0771999999999999E-2</v>
       </c>
@@ -68064,7 +68227,7 @@
         <v>1.5399999999999999E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:37">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>-2.0625999999999999E-2</v>
       </c>
@@ -68177,7 +68340,7 @@
         <v>1.312E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:37">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>-2.0473999999999999E-2</v>
       </c>
@@ -68290,7 +68453,7 @@
         <v>1.3179999999999999E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:37">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>-2.0362999999999999E-2</v>
       </c>
@@ -68403,7 +68566,7 @@
         <v>1.243E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:37">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>-2.0046000000000001E-2</v>
       </c>
@@ -68516,7 +68679,7 @@
         <v>1.052E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:37">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>-1.9649E-2</v>
       </c>
@@ -68629,7 +68792,7 @@
         <v>1.1019999999999999E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:37">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>-1.9407000000000001E-2</v>
       </c>
@@ -68742,7 +68905,7 @@
         <v>1.088E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:37">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>-1.8867999999999999E-2</v>
       </c>
@@ -68855,7 +69018,7 @@
         <v>7.18E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:37">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>-1.8629E-2</v>
       </c>
@@ -68968,7 +69131,7 @@
         <v>9.5699999999999995E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:37">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>-1.8151E-2</v>
       </c>
@@ -69081,7 +69244,7 @@
         <v>6.3400000000000001E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:37">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>-1.7846000000000001E-2</v>
       </c>
@@ -69194,7 +69357,7 @@
         <v>3.5199999999999999E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:37">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>-1.7641E-2</v>
       </c>
@@ -69307,7 +69470,7 @@
         <v>5.9400000000000002E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:37">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>-1.7247999999999999E-2</v>
       </c>
@@ -69420,7 +69583,7 @@
         <v>9.5000000000000005E-5</v>
       </c>
     </row>
-    <row r="72" spans="1:37">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>-1.6698999999999999E-2</v>
       </c>
@@ -69533,7 +69696,7 @@
         <v>6.2000000000000003E-5</v>
       </c>
     </row>
-    <row r="73" spans="1:37">
+    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>-1.6452999999999999E-2</v>
       </c>
@@ -69646,7 +69809,7 @@
         <v>1.4E-5</v>
       </c>
     </row>
-    <row r="74" spans="1:37">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>-1.5696999999999999E-2</v>
       </c>
@@ -69759,7 +69922,7 @@
         <v>-2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:37">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>-1.6202999999999999E-2</v>
       </c>
@@ -69872,7 +70035,7 @@
         <v>1.7899999999999999E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:37">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>-1.6486000000000001E-2</v>
       </c>
@@ -69985,7 +70148,7 @@
         <v>-2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:37">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>-1.6421000000000002E-2</v>
       </c>
@@ -70098,7 +70261,7 @@
         <v>-1.0399999999999999E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:37">
+    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>-1.6896999999999999E-2</v>
       </c>
@@ -70211,7 +70374,7 @@
         <v>3.0299999999999999E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:37">
+    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>-1.7144E-2</v>
       </c>
@@ -70324,7 +70487,7 @@
         <v>2.1999999999999999E-5</v>
       </c>
     </row>
-    <row r="80" spans="1:37">
+    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>-1.7281999999999999E-2</v>
       </c>
@@ -70437,7 +70600,7 @@
         <v>3.3399999999999999E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:37">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>-1.7545000000000002E-2</v>
       </c>
@@ -70569,9 +70732,9 @@
       <selection sqref="A1:XFD83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>-0.103711</v>
       </c>
@@ -70684,7 +70847,7 @@
         <v>2.2468999999999999E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-8.4645999999999999E-2</v>
       </c>
@@ -70797,7 +70960,7 @@
         <v>1.6227999999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-6.5224000000000004E-2</v>
       </c>
@@ -70910,7 +71073,7 @@
         <v>9.0699999999999999E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-4.9078999999999998E-2</v>
       </c>
@@ -71023,7 +71186,7 @@
         <v>3.186E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-3.7613000000000001E-2</v>
       </c>
@@ -71136,7 +71299,7 @@
         <v>-4.1E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-2.9749000000000001E-2</v>
       </c>
@@ -71249,7 +71412,7 @@
         <v>-1.6050000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-2.4447E-2</v>
       </c>
@@ -71362,7 +71525,7 @@
         <v>-1.4779999999999999E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-2.036E-2</v>
       </c>
@@ -71475,7 +71638,7 @@
         <v>-1.33E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-1.737E-2</v>
       </c>
@@ -71588,7 +71751,7 @@
         <v>-1.0330000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-1.4540000000000001E-2</v>
       </c>
@@ -71701,7 +71864,7 @@
         <v>-6.9099999999999999E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-1.2241999999999999E-2</v>
       </c>
@@ -71814,7 +71977,7 @@
         <v>-6.8199999999999999E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-1.0199E-2</v>
       </c>
@@ -71927,7 +72090,7 @@
         <v>-3.6999999999999999E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-8.5640000000000004E-3</v>
       </c>
@@ -72040,7 +72203,7 @@
         <v>-3.3100000000000002E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:37">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-7.0520000000000001E-3</v>
       </c>
@@ -72153,7 +72316,7 @@
         <v>-1.3799999999999999E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:37">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-5.6259999999999999E-3</v>
       </c>
@@ -72266,7 +72429,7 @@
         <v>1.5899999999999999E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:37">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-4.3379999999999998E-3</v>
       </c>
@@ -72379,7 +72542,7 @@
         <v>1.17E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:37">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-3.1229999999999999E-3</v>
       </c>
@@ -72492,7 +72655,7 @@
         <v>3.0299999999999999E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:37">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-1.9889999999999999E-3</v>
       </c>
@@ -72605,7 +72768,7 @@
         <v>3.8499999999999998E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:37">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-1.2329999999999999E-3</v>
       </c>
@@ -72718,7 +72881,7 @@
         <v>3.9500000000000001E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:37">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-3.9800000000000002E-4</v>
       </c>
@@ -72831,7 +72994,7 @@
         <v>4.8000000000000001E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:37">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4.17E-4</v>
       </c>
@@ -72944,7 +73107,7 @@
         <v>5.9800000000000001E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:37">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1.238E-3</v>
       </c>
@@ -73057,7 +73220,7 @@
         <v>7.36E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:37">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1.8519999999999999E-3</v>
       </c>
@@ -73170,7 +73333,7 @@
         <v>7.7999999999999999E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:37">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2.307E-3</v>
       </c>
@@ -73283,7 +73446,7 @@
         <v>7.7499999999999997E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:37">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2.8630000000000001E-3</v>
       </c>
@@ -73396,7 +73559,7 @@
         <v>8.6799999999999996E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:37">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2.8670000000000002E-3</v>
       </c>
@@ -73509,7 +73672,7 @@
         <v>9.0799999999999995E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:37">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2.9559999999999999E-3</v>
       </c>
@@ -73622,7 +73785,7 @@
         <v>9.859999999999999E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:37">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2.862E-3</v>
       </c>
@@ -73735,7 +73898,7 @@
         <v>9.1100000000000003E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:37">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3.1289999999999998E-3</v>
       </c>
@@ -73848,7 +74011,7 @@
         <v>1.139E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:37">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3.3670000000000002E-3</v>
       </c>
@@ -73961,7 +74124,7 @@
         <v>1.3290000000000001E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:37">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3.6210000000000001E-3</v>
       </c>
@@ -74074,7 +74237,7 @@
         <v>1.5100000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:37">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3.797E-3</v>
       </c>
@@ -74187,7 +74350,7 @@
         <v>1.547E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:37">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>4.0229999999999997E-3</v>
       </c>
@@ -74300,7 +74463,7 @@
         <v>1.6310000000000001E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:37">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>4.3489999999999996E-3</v>
       </c>
@@ -74413,7 +74576,7 @@
         <v>1.7149999999999999E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:37">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>4.6109999999999996E-3</v>
       </c>
@@ -74526,7 +74689,7 @@
         <v>1.7489999999999999E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:37">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>4.8570000000000002E-3</v>
       </c>
@@ -74639,7 +74802,7 @@
         <v>1.738E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:37">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>5.1510000000000002E-3</v>
       </c>
@@ -74752,7 +74915,7 @@
         <v>1.709E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:37">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>5.4450000000000002E-3</v>
       </c>
@@ -74865,7 +75028,7 @@
         <v>1.6249999999999999E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:37">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>5.738E-3</v>
       </c>
@@ -74978,7 +75141,7 @@
         <v>1.583E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:37">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2.552E-3</v>
       </c>
@@ -75091,7 +75254,7 @@
         <v>9.1299999999999997E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:37">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2.9020000000000001E-3</v>
       </c>
@@ -75204,7 +75367,7 @@
         <v>8.7900000000000001E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:37">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3.1649999999999998E-3</v>
       </c>
@@ -75317,7 +75480,7 @@
         <v>8.92E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:37">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>3.2620000000000001E-3</v>
       </c>
@@ -75430,7 +75593,7 @@
         <v>7.7899999999999996E-4</v>
       </c>
     </row>
-    <row r="44" spans="1:37">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3.356E-3</v>
       </c>
@@ -75543,7 +75706,7 @@
         <v>7.3300000000000004E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:37">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>3.4740000000000001E-3</v>
       </c>
@@ -75656,7 +75819,7 @@
         <v>6.3500000000000004E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:37">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>3.7169999999999998E-3</v>
       </c>
@@ -75769,7 +75932,7 @@
         <v>6.5899999999999997E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:37">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>3.8349999999999999E-3</v>
       </c>
@@ -75882,7 +76045,7 @@
         <v>6.3199999999999997E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:37">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>4.0419999999999996E-3</v>
       </c>
@@ -75995,7 +76158,7 @@
         <v>6.0899999999999995E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:37">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>4.2110000000000003E-3</v>
       </c>
@@ -76108,7 +76271,7 @@
         <v>6.1600000000000001E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:37">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>4.346E-3</v>
       </c>
@@ -76221,7 +76384,7 @@
         <v>6.2399999999999999E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:37">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>4.6220000000000002E-3</v>
       </c>
@@ -76334,7 +76497,7 @@
         <v>5.8399999999999999E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:37">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>4.9249999999999997E-3</v>
       </c>
@@ -76447,7 +76610,7 @@
         <v>6.4899999999999995E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:37">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>5.1630000000000001E-3</v>
       </c>
@@ -76560,7 +76723,7 @@
         <v>5.7399999999999997E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:37">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>5.3189999999999999E-3</v>
       </c>
@@ -76673,7 +76836,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:37">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>5.6730000000000001E-3</v>
       </c>
@@ -76786,7 +76949,7 @@
         <v>4.8999999999999998E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:37">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>5.9569999999999996E-3</v>
       </c>
@@ -76899,7 +77062,7 @@
         <v>3.7599999999999998E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:37">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>6.1479999999999998E-3</v>
       </c>
@@ -77012,7 +77175,7 @@
         <v>2.5599999999999999E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:37">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>6.4530000000000004E-3</v>
       </c>
@@ -77125,7 +77288,7 @@
         <v>1.4100000000000001E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:37">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>6.7590000000000003E-3</v>
       </c>
@@ -77238,7 +77401,7 @@
         <v>6.6000000000000005E-5</v>
       </c>
     </row>
-    <row r="60" spans="1:37">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>7.2139999999999999E-3</v>
       </c>
@@ -77351,7 +77514,7 @@
         <v>-2.0799999999999999E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:37">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>7.2719999999999998E-3</v>
       </c>
@@ -77464,7 +77627,7 @@
         <v>-3.5300000000000002E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:37">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>7.1929999999999997E-3</v>
       </c>
@@ -77577,7 +77740,7 @@
         <v>-4.4299999999999998E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:37">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>7.3569999999999998E-3</v>
       </c>
@@ -77690,7 +77853,7 @@
         <v>-6.7500000000000004E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:37">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>7.4939999999999998E-3</v>
       </c>
@@ -77803,7 +77966,7 @@
         <v>-8.4000000000000003E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:37">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>7.2709999999999997E-3</v>
       </c>
@@ -77916,7 +78079,7 @@
         <v>-1.096E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:37">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>7.0860000000000003E-3</v>
       </c>
@@ -78029,7 +78192,7 @@
         <v>-1.307E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:37">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>6.881E-3</v>
       </c>
@@ -78142,7 +78305,7 @@
         <v>-1.431E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:37">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>6.7679999999999997E-3</v>
       </c>
@@ -78255,7 +78418,7 @@
         <v>-1.5809999999999999E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:37">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>6.62E-3</v>
       </c>
@@ -78368,7 +78531,7 @@
         <v>-1.6819999999999999E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:37">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>6.6080000000000002E-3</v>
       </c>
@@ -78481,7 +78644,7 @@
         <v>-1.6770000000000001E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:37">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>6.2649999999999997E-3</v>
       </c>
@@ -78594,7 +78757,7 @@
         <v>-1.8079999999999999E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:37">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>6.1479999999999998E-3</v>
       </c>
@@ -78707,7 +78870,7 @@
         <v>-1.879E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:37">
+    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>5.8710000000000004E-3</v>
       </c>
@@ -78820,7 +78983,7 @@
         <v>-1.9849999999999998E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:37">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>5.751E-3</v>
       </c>
@@ -78933,7 +79096,7 @@
         <v>-1.9780000000000002E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:37">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>5.476E-3</v>
       </c>
@@ -79046,7 +79209,7 @@
         <v>-2.2499999999999998E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:37">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>5.3969999999999999E-3</v>
       </c>
@@ -79159,7 +79322,7 @@
         <v>-2.3760000000000001E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:37">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>5.3090000000000004E-3</v>
       </c>
@@ -79272,7 +79435,7 @@
         <v>-2.5309999999999998E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:37">
+    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>5.3280000000000003E-3</v>
       </c>
@@ -79385,7 +79548,7 @@
         <v>-2.5969999999999999E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:37">
+    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>5.1989999999999996E-3</v>
       </c>
@@ -79498,7 +79661,7 @@
         <v>-2.7810000000000001E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:37">
+    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>4.921E-3</v>
       </c>
@@ -79611,7 +79774,7 @@
         <v>-3.1210000000000001E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:37">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>4.6290000000000003E-3</v>
       </c>
@@ -79724,7 +79887,7 @@
         <v>-3.4759999999999999E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:37">
+    <row r="82" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>4.2989999999999999E-3</v>
       </c>
@@ -79837,7 +80000,7 @@
         <v>-3.6159999999999999E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:37">
+    <row r="83" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>4.7580000000000001E-3</v>
       </c>
@@ -79969,9 +80132,9 @@
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>5.4980000000000001E-2</v>
       </c>
@@ -80084,7 +80247,7 @@
         <v>-2.5113E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4.4926000000000001E-2</v>
       </c>
@@ -80197,7 +80360,7 @@
         <v>-1.9924999999999998E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3.5697E-2</v>
       </c>
@@ -80310,7 +80473,7 @@
         <v>-1.7885999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2.8038E-2</v>
       </c>
@@ -80423,7 +80586,7 @@
         <v>-1.3868E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2.1828E-2</v>
       </c>
@@ -80536,7 +80699,7 @@
         <v>-1.2772E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1.6667999999999999E-2</v>
       </c>
@@ -80649,7 +80812,7 @@
         <v>-1.0481000000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1.2919999999999999E-2</v>
       </c>
@@ -80762,7 +80925,7 @@
         <v>-8.5210000000000008E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>9.1570000000000002E-3</v>
       </c>
@@ -80875,7 +81038,7 @@
         <v>-7.6920000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6.4380000000000001E-3</v>
       </c>
@@ -80988,7 +81151,7 @@
         <v>-5.9500000000000004E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4.4720000000000003E-3</v>
       </c>
@@ -81101,7 +81264,7 @@
         <v>-5.3109999999999997E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2.2469999999999999E-3</v>
       </c>
@@ -81214,7 +81377,7 @@
         <v>-4.5729999999999998E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1.116E-3</v>
       </c>
@@ -81327,7 +81490,7 @@
         <v>-3.7919999999999998E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-5.9000000000000003E-4</v>
       </c>
@@ -81440,7 +81603,7 @@
         <v>-3.3899999999999998E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:37">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-1.3829999999999999E-3</v>
       </c>
@@ -81553,7 +81716,7 @@
         <v>-2.5560000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:37">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-1.931E-3</v>
       </c>
@@ -81666,7 +81829,7 @@
         <v>-2.539E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:37">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-2.4489999999999998E-3</v>
       </c>
@@ -81779,7 +81942,7 @@
         <v>-1.8129999999999999E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:37">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-3.1960000000000001E-3</v>
       </c>
@@ -81892,7 +82055,7 @@
         <v>-1.905E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:37">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-3.0790000000000001E-3</v>
       </c>
@@ -82005,7 +82168,7 @@
         <v>-1.5330000000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:37">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-3.5339999999999998E-3</v>
       </c>
@@ -82118,7 +82281,7 @@
         <v>-1.2019999999999999E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:37">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-3.653E-3</v>
       </c>
@@ -82231,7 +82394,7 @@
         <v>-1.0139999999999999E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:37">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-3.653E-3</v>
       </c>
@@ -82344,7 +82507,7 @@
         <v>-9.59E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:37">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-4.1910000000000003E-3</v>
       </c>
@@ -82457,7 +82620,7 @@
         <v>-6.3500000000000004E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:37">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-4.006E-3</v>
       </c>
@@ -82570,7 +82733,7 @@
         <v>-5.8200000000000005E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:37">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-4.0980000000000001E-3</v>
       </c>
@@ -82683,7 +82846,7 @@
         <v>-4.9899999999999999E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:37">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-4.3870000000000003E-3</v>
       </c>
@@ -82796,7 +82959,7 @@
         <v>-4.2900000000000002E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:37">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-3.8560000000000001E-3</v>
       </c>
@@ -82909,7 +83072,7 @@
         <v>-2.7599999999999999E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:37">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-4.1209999999999997E-3</v>
       </c>
@@ -83022,7 +83185,7 @@
         <v>-2.41E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:37">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-3.9890000000000004E-3</v>
       </c>
@@ -83135,7 +83298,7 @@
         <v>-1.95E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:37">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-3.7550000000000001E-3</v>
       </c>
@@ -83248,7 +83411,7 @@
         <v>-8.2000000000000001E-5</v>
       </c>
     </row>
-    <row r="30" spans="1:37">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-3.9370000000000004E-3</v>
       </c>
@@ -83361,7 +83524,7 @@
         <v>-3.8000000000000002E-5</v>
       </c>
     </row>
-    <row r="31" spans="1:37">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-3.7889999999999998E-3</v>
       </c>
@@ -83474,7 +83637,7 @@
         <v>3.4E-5</v>
       </c>
     </row>
-    <row r="32" spans="1:37">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-3.9069999999999999E-3</v>
       </c>
@@ -83587,7 +83750,7 @@
         <v>-2.5000000000000001E-5</v>
       </c>
     </row>
-    <row r="33" spans="1:37">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>-4.0790000000000002E-3</v>
       </c>
@@ -83700,7 +83863,7 @@
         <v>-2.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="34" spans="1:37">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>-3.777E-3</v>
       </c>
@@ -83813,7 +83976,7 @@
         <v>8.7000000000000001E-5</v>
       </c>
     </row>
-    <row r="35" spans="1:37">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-3.8800000000000002E-3</v>
       </c>
@@ -83926,7 +84089,7 @@
         <v>4.1999999999999998E-5</v>
       </c>
     </row>
-    <row r="36" spans="1:37">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>-4.0400000000000002E-3</v>
       </c>
@@ -84039,7 +84202,7 @@
         <v>-3.0000000000000001E-6</v>
       </c>
     </row>
-    <row r="37" spans="1:37">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>-3.8010000000000001E-3</v>
       </c>
@@ -84152,7 +84315,7 @@
         <v>1.1900000000000001E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:37">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>-4.1330000000000004E-3</v>
       </c>
@@ -84265,7 +84428,7 @@
         <v>-2.3E-5</v>
       </c>
     </row>
-    <row r="39" spans="1:37">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>-3.8430000000000001E-3</v>
       </c>
@@ -84378,7 +84541,7 @@
         <v>2.3E-5</v>
       </c>
     </row>
-    <row r="40" spans="1:37">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>-5.9769999999999997E-3</v>
       </c>
@@ -84491,7 +84654,7 @@
         <v>-2.1999999999999999E-5</v>
       </c>
     </row>
-    <row r="41" spans="1:37">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>-5.6150000000000002E-3</v>
       </c>
@@ -84604,7 +84767,7 @@
         <v>9.0000000000000006E-5</v>
       </c>
     </row>
-    <row r="42" spans="1:37">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>-5.7499999999999999E-3</v>
       </c>
@@ -84717,7 +84880,7 @@
         <v>3.1999999999999999E-5</v>
       </c>
     </row>
-    <row r="43" spans="1:37">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>-5.2830000000000004E-3</v>
       </c>
@@ -84830,7 +84993,7 @@
         <v>6.6000000000000005E-5</v>
       </c>
     </row>
-    <row r="44" spans="1:37">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>-4.9919999999999999E-3</v>
       </c>
@@ -84943,7 +85106,7 @@
         <v>1.16E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:37">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>-4.7829999999999999E-3</v>
       </c>
@@ -85056,7 +85219,7 @@
         <v>1.07E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:37">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>-4.6319999999999998E-3</v>
       </c>
@@ -85169,7 +85332,7 @@
         <v>1.54E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:37">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>-4.5319999999999996E-3</v>
       </c>
@@ -85282,7 +85445,7 @@
         <v>1.05E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:37">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>-4.385E-3</v>
       </c>
@@ -85395,7 +85558,7 @@
         <v>1.12E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:37">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>-4.2430000000000002E-3</v>
       </c>
@@ -85508,7 +85671,7 @@
         <v>1.01E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:37">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>-4.0980000000000001E-3</v>
       </c>
@@ -85621,7 +85784,7 @@
         <v>1.7699999999999999E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:37">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>-3.9560000000000003E-3</v>
       </c>
@@ -85734,7 +85897,7 @@
         <v>1.4200000000000001E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:37">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>-3.8279999999999998E-3</v>
       </c>
@@ -85847,7 +86010,7 @@
         <v>1.3799999999999999E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:37">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>-3.6280000000000001E-3</v>
       </c>
@@ -85960,7 +86123,7 @@
         <v>2.4800000000000001E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:37">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>-3.6540000000000001E-3</v>
       </c>
@@ -86073,7 +86236,7 @@
         <v>9.2999999999999997E-5</v>
       </c>
     </row>
-    <row r="55" spans="1:37">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>-3.4840000000000001E-3</v>
       </c>
@@ -86186,7 +86349,7 @@
         <v>1.15E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:37">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>-3.088E-3</v>
       </c>
@@ -86299,7 +86462,7 @@
         <v>1.26E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:37">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>-2.8630000000000001E-3</v>
       </c>
@@ -86412,7 +86575,7 @@
         <v>5.3999999999999998E-5</v>
       </c>
     </row>
-    <row r="58" spans="1:37">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>-2.6580000000000002E-3</v>
       </c>
@@ -86525,7 +86688,7 @@
         <v>-3.8999999999999999E-5</v>
       </c>
     </row>
-    <row r="59" spans="1:37">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>-2.2460000000000002E-3</v>
       </c>
@@ -86638,7 +86801,7 @@
         <v>2.1999999999999999E-5</v>
       </c>
     </row>
-    <row r="60" spans="1:37">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>-1.97E-3</v>
       </c>
@@ -86751,7 +86914,7 @@
         <v>-1.9900000000000001E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:37">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>-1.485E-3</v>
       </c>
@@ -86864,7 +87027,7 @@
         <v>-1.4E-5</v>
       </c>
     </row>
-    <row r="62" spans="1:37">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>-1.044E-3</v>
       </c>
@@ -86977,7 +87140,7 @@
         <v>-3.1100000000000002E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:37">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>-8.6300000000000005E-4</v>
       </c>
@@ -87090,7 +87253,7 @@
         <v>-3.8000000000000002E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:37">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>-3.7399999999999998E-4</v>
       </c>
@@ -87203,7 +87366,7 @@
         <v>-4.7100000000000001E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:37">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>-7.9999999999999996E-6</v>
       </c>
@@ -87316,7 +87479,7 @@
         <v>-6.2399999999999999E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:37">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>3.9500000000000001E-4</v>
       </c>
@@ -87429,7 +87592,7 @@
         <v>-8.1400000000000005E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:37">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>8.3199999999999995E-4</v>
       </c>
@@ -87542,7 +87705,7 @@
         <v>-8.0999999999999996E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:37">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1.2110000000000001E-3</v>
       </c>
@@ -87655,7 +87818,7 @@
         <v>-9.6100000000000005E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:37">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1.769E-3</v>
       </c>
@@ -87768,7 +87931,7 @@
         <v>-9.4799999999999995E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:37">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1.818E-3</v>
       </c>
@@ -87881,7 +88044,7 @@
         <v>-1.0889999999999999E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:37">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2.2959999999999999E-3</v>
       </c>
@@ -87994,7 +88157,7 @@
         <v>-1.1130000000000001E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:37">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2.294E-3</v>
       </c>
@@ -88107,7 +88270,7 @@
         <v>-1.1820000000000001E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:37">
+    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2.5950000000000001E-3</v>
       </c>
@@ -88220,7 +88383,7 @@
         <v>-1.2750000000000001E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:37">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>3.0869999999999999E-3</v>
       </c>
@@ -88333,7 +88496,7 @@
         <v>-1.2930000000000001E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:37">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2.8800000000000002E-3</v>
       </c>
@@ -88446,7 +88609,7 @@
         <v>-1.3910000000000001E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:37">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>3.3119999999999998E-3</v>
       </c>
@@ -88559,7 +88722,7 @@
         <v>-1.505E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:37">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>3.6350000000000002E-3</v>
       </c>
@@ -88672,7 +88835,7 @@
         <v>-1.4840000000000001E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:37">
+    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>3.4640000000000001E-3</v>
       </c>
@@ -88785,7 +88948,7 @@
         <v>-1.6789999999999999E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:37">
+    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>3.7919999999999998E-3</v>
       </c>
@@ -88898,7 +89061,7 @@
         <v>-1.655E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:37">
+    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>4.0980000000000001E-3</v>
       </c>
@@ -89011,7 +89174,7 @@
         <v>-1.652E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:37">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>4.2290000000000001E-3</v>
       </c>
@@ -89124,7 +89287,7 @@
         <v>-1.7899999999999999E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:37">
+    <row r="82" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>4.8640000000000003E-3</v>
       </c>
@@ -89237,7 +89400,7 @@
         <v>-1.8190000000000001E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:37">
+    <row r="83" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>4.6210000000000001E-3</v>
       </c>
